--- a/Asgari-ucret.xlsx
+++ b/Asgari-ucret.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aa202304\hes2020\kira\snyH_yzhane\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\yzhn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45AA622A-273C-4FDD-98D0-A9C68657A151}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B9E91B-5842-4BDB-8A48-E4283965473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -352,7 +352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -366,9 +366,6 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -379,6 +376,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,643 +694,652 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:V17"/>
+  <dimension ref="A2:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.140625" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5703125" customWidth="1"/>
-    <col min="13" max="13" width="6" customWidth="1"/>
-    <col min="14" max="14" width="5.5703125" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" customWidth="1"/>
-    <col min="16" max="16" width="5.5703125" customWidth="1"/>
-    <col min="17" max="17" width="6" customWidth="1"/>
-    <col min="18" max="18" width="4.5703125" customWidth="1"/>
-    <col min="19" max="19" width="6" customWidth="1"/>
-    <col min="20" max="20" width="4.5703125" customWidth="1"/>
-    <col min="21" max="21" width="6" customWidth="1"/>
-    <col min="22" max="22" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.28515625" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.5703125" customWidth="1"/>
+    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.5703125" customWidth="1"/>
+    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" customWidth="1"/>
+    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B2" s="10" t="s">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>5</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>6</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B3" s="10" t="s">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>10</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>11</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="T3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2" t="s">
+      <c r="U3" s="2"/>
+      <c r="V3" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="B4" s="10"/>
-      <c r="C4" s="11" t="s">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C4" s="9"/>
+      <c r="D4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>2023</v>
       </c>
-      <c r="B5">
-        <v>250000</v>
-      </c>
-      <c r="C5" s="1">
-        <f>B5/Sayfa1!$E8</f>
-        <v>18.636550001863654</v>
-      </c>
-      <c r="D5" s="1">
-        <v>150000</v>
-      </c>
-      <c r="E5" s="1">
-        <f>D5/Sayfa1!$D8</f>
-        <v>13.155217534677154</v>
-      </c>
-      <c r="F5" s="1">
-        <f>C5/E5</f>
-        <v>1.4166660454483331</v>
-      </c>
-      <c r="H5" s="1">
-        <f>G5/Sayfa1!$D8</f>
+      <c r="B6" s="12">
+        <f>Sayfa1!D8</f>
+        <v>11402.32</v>
+      </c>
+      <c r="C6">
+        <v>366</v>
+      </c>
+      <c r="D6" s="1">
+        <f>C6/B6*1000</f>
+        <v>32.098730784612258</v>
+      </c>
+      <c r="E6" s="1">
+        <v>216000</v>
+      </c>
+      <c r="F6" s="1">
+        <f>E6/B6</f>
+        <v>18.943513249935101</v>
+      </c>
+      <c r="G6" s="1">
+        <f>D6/F6</f>
+        <v>1.6944444444444446</v>
+      </c>
+      <c r="H6">
+        <v>33600</v>
+      </c>
+      <c r="I6" s="1">
+        <f>H6/Sayfa1!$D8</f>
+        <v>2.9467687277676826</v>
+      </c>
+      <c r="J6">
+        <v>78000</v>
+      </c>
+      <c r="K6" s="1">
+        <f>J6/B6</f>
+        <v>6.8407131180321201</v>
+      </c>
+      <c r="L6">
+        <v>84000</v>
+      </c>
+      <c r="M6" s="1">
+        <f>L6/B6</f>
+        <v>7.3669218194192059</v>
+      </c>
+      <c r="N6">
+        <v>180000</v>
+      </c>
+      <c r="O6" s="1">
+        <f>N6/B6</f>
+        <v>15.786261041612585</v>
+      </c>
+      <c r="P6">
+        <v>225000</v>
+      </c>
+      <c r="Q6" s="1">
+        <f>P6/B6</f>
+        <v>19.732826302015731</v>
+      </c>
+      <c r="R6">
+        <v>96000</v>
+      </c>
+      <c r="S6" s="1">
+        <f>R6/B6</f>
+        <v>8.4193392221933792</v>
+      </c>
+      <c r="T6">
+        <v>83160</v>
+      </c>
+      <c r="U6" s="1">
+        <f>T6/B6</f>
+        <v>7.2932526012250136</v>
+      </c>
+      <c r="V6">
+        <v>96000</v>
+      </c>
+      <c r="W6" s="1">
+        <f>V6/B6</f>
+        <v>8.4193392221933792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="12">
+        <f>Sayfa1!D10</f>
+        <v>5500.35</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" ref="D7:D13" si="0">C7/B7*1000</f>
+        <v>17.271628169116511</v>
+      </c>
+      <c r="E7" s="1">
+        <v>60032</v>
+      </c>
+      <c r="F7" s="1">
+        <f>E7/B7</f>
+        <v>10.914214549983182</v>
+      </c>
+      <c r="G7" s="1">
+        <f t="shared" ref="G7:G13" si="1">D7/F7</f>
+        <v>1.5824893390191899</v>
+      </c>
+      <c r="H7">
+        <v>19800</v>
+      </c>
+      <c r="I7" s="1">
+        <f>H7/Sayfa1!$D9</f>
+        <v>2.3275497249259418</v>
+      </c>
+      <c r="J7">
+        <v>60000</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K9" si="2">J7/B7</f>
+        <v>10.908396738389374</v>
+      </c>
+      <c r="L7">
+        <v>42000</v>
+      </c>
+      <c r="M7" s="1">
+        <f t="shared" ref="M7:M9" si="3">L7/B7</f>
+        <v>7.635877716872562</v>
+      </c>
+      <c r="N7">
+        <v>84000</v>
+      </c>
+      <c r="O7" s="1">
+        <f t="shared" ref="O7:O9" si="4">N7/B7</f>
+        <v>15.271755433745124</v>
+      </c>
+      <c r="P7">
+        <v>82000</v>
+      </c>
+      <c r="Q7" s="1">
+        <f t="shared" ref="Q7:Q10" si="5">P7/B7</f>
+        <v>14.908142209132144</v>
+      </c>
+      <c r="R7">
+        <v>45000</v>
+      </c>
+      <c r="S7" s="1">
+        <f t="shared" ref="S7:S9" si="6">R7/B7</f>
+        <v>8.1812975537920316</v>
+      </c>
+      <c r="T7">
+        <v>48000</v>
+      </c>
+      <c r="U7" s="1">
+        <f>T7/B7</f>
+        <v>8.7267173907114994</v>
+      </c>
+      <c r="V7">
+        <v>48000</v>
+      </c>
+      <c r="W7" s="1">
+        <f t="shared" ref="W7:W11" si="7">V7/B7</f>
+        <v>8.7267173907114994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="12">
+        <f>Sayfa1!D12</f>
+        <v>2825.9</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>18.401217311299053</v>
+      </c>
+      <c r="E8" s="1">
+        <v>34092</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" ref="F8:F13" si="8">E8/B8</f>
+        <v>12.064121164938603</v>
+      </c>
+      <c r="G8" s="1">
+        <f t="shared" si="1"/>
+        <v>1.525284524228558</v>
+      </c>
+      <c r="H8">
+        <v>12000</v>
+      </c>
+      <c r="I8" s="1">
+        <f>H8/Sayfa1!$D10</f>
+        <v>2.1816793476778749</v>
+      </c>
+      <c r="J8">
+        <v>30000</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="2"/>
+        <v>10.616086910364839</v>
+      </c>
+      <c r="L8">
+        <v>24000</v>
+      </c>
+      <c r="M8" s="1">
+        <f t="shared" si="3"/>
+        <v>8.4928695282918714</v>
+      </c>
+      <c r="N8">
+        <v>28800</v>
+      </c>
+      <c r="O8" s="1">
+        <f t="shared" si="4"/>
+        <v>10.191443433950246</v>
+      </c>
+      <c r="P8">
+        <v>55160</v>
+      </c>
+      <c r="Q8" s="1">
+        <f t="shared" si="5"/>
+        <v>19.519445132524151</v>
+      </c>
+      <c r="R8">
+        <v>30000</v>
+      </c>
+      <c r="S8" s="1">
+        <f t="shared" si="6"/>
+        <v>10.616086910364839</v>
+      </c>
+      <c r="U8" s="1"/>
+      <c r="W8" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J5" s="1">
-        <f>I5/Sayfa1!$D8</f>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="12">
+        <f>Sayfa1!D13</f>
+        <v>2324.71</v>
+      </c>
+      <c r="C9">
+        <v>44</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>18.927091981365415</v>
+      </c>
+      <c r="E9" s="1">
+        <v>30558</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="8"/>
+        <v>13.144865381058283</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4398848092152625</v>
+      </c>
+      <c r="H9">
+        <v>9700</v>
+      </c>
+      <c r="I9" s="1">
+        <f>H9/Sayfa1!$D11</f>
+        <v>2.2805285183617814</v>
+      </c>
+      <c r="J9">
+        <v>25000</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="2"/>
+        <v>10.754029534866714</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="K5">
-        <v>84000</v>
-      </c>
-      <c r="L5" s="1">
-        <f>K5/Sayfa1!$D8</f>
-        <v>7.3669218194192059</v>
-      </c>
-      <c r="M5">
-        <v>180000</v>
-      </c>
-      <c r="N5" s="1">
-        <f>M5/Sayfa1!$D8</f>
-        <v>15.786261041612585</v>
-      </c>
-      <c r="O5">
-        <v>160000</v>
-      </c>
-      <c r="P5" s="1">
-        <f>O5/Sayfa1!$D8</f>
-        <v>14.032232036988963</v>
-      </c>
-      <c r="Q5">
-        <v>96000</v>
-      </c>
-      <c r="R5" s="1">
-        <f>Q5/Sayfa1!$D8</f>
-        <v>8.4193392221933792</v>
-      </c>
-      <c r="S5">
-        <v>83160</v>
-      </c>
-      <c r="T5" s="1">
-        <f>S5/Sayfa1!$D8</f>
-        <v>7.2932526012250136</v>
-      </c>
-      <c r="U5">
-        <v>108000</v>
-      </c>
-      <c r="V5" s="1">
-        <f>U5/Sayfa1!$D8</f>
-        <v>9.4717566249675507</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2022</v>
-      </c>
-      <c r="B6">
-        <v>95000</v>
-      </c>
-      <c r="C6" s="1">
-        <f>B6/Sayfa1!$E10</f>
-        <v>14.680883943749034</v>
-      </c>
-      <c r="D6" s="1">
-        <v>60895</v>
-      </c>
-      <c r="E6" s="1">
-        <f>D6/Sayfa1!$D10</f>
-        <v>11.071113656403682</v>
-      </c>
-      <c r="F6" s="1">
-        <f t="shared" ref="F6:F17" si="0">C6/E6</f>
-        <v>1.326053042121685</v>
-      </c>
-      <c r="H6" s="1">
-        <f>G6/Sayfa1!$D9</f>
+      <c r="N9">
+        <v>36000</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" si="4"/>
+        <v>15.485802530208069</v>
+      </c>
+      <c r="P9">
+        <v>35000</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" si="5"/>
+        <v>15.055641348813401</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="W9" s="1">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="J6" s="1">
-        <f>I6/Sayfa1!$D9</f>
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>42000</v>
-      </c>
-      <c r="L6" s="1">
-        <f>K6/Sayfa1!$D10</f>
-        <v>7.635877716872562</v>
-      </c>
-      <c r="M6">
-        <v>84000</v>
-      </c>
-      <c r="N6" s="1">
-        <f>M6/Sayfa1!$D10</f>
-        <v>15.271755433745124</v>
-      </c>
-      <c r="O6">
-        <v>82000</v>
-      </c>
-      <c r="P6" s="1">
-        <f>O6/Sayfa1!$D10</f>
-        <v>14.908142209132144</v>
-      </c>
-      <c r="Q6">
-        <v>45000</v>
-      </c>
-      <c r="R6" s="1">
-        <f>Q6/Sayfa1!$D10</f>
-        <v>8.1812975537920316</v>
-      </c>
-      <c r="S6">
-        <v>48000</v>
-      </c>
-      <c r="T6" s="1">
-        <f>S6/Sayfa1!$D10</f>
-        <v>8.7267173907114994</v>
-      </c>
-      <c r="U6">
-        <v>48000</v>
-      </c>
-      <c r="V6" s="1">
-        <f>U6/Sayfa1!$D10</f>
-        <v>8.7267173907114994</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2021</v>
-      </c>
-      <c r="B7">
-        <v>52000</v>
-      </c>
-      <c r="C7" s="1">
-        <f>B7/Sayfa1!$E12</f>
-        <v>14.53529000698812</v>
-      </c>
-      <c r="D7" s="1">
-        <v>34092</v>
-      </c>
-      <c r="E7" s="1">
-        <f>D7/Sayfa1!$D12</f>
-        <v>12.064121164938603</v>
-      </c>
-      <c r="F7" s="1">
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="12">
+        <f>Sayfa1!D14</f>
+        <v>2020.9</v>
+      </c>
+      <c r="C10">
+        <v>39</v>
+      </c>
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>1.2048362088099183</v>
-      </c>
-      <c r="H7" s="1">
-        <f>G7/Sayfa1!$D10</f>
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <f>I7/Sayfa1!$D10</f>
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>24000</v>
-      </c>
-      <c r="L7" s="1">
-        <f>K7/Sayfa1!$D12</f>
-        <v>8.4928695282918714</v>
-      </c>
-      <c r="M7">
-        <v>28800</v>
-      </c>
-      <c r="N7" s="1">
-        <f>M7/Sayfa1!$D12</f>
-        <v>10.191443433950246</v>
-      </c>
-      <c r="O7">
-        <v>55160</v>
-      </c>
-      <c r="P7" s="1">
-        <f>O7/Sayfa1!$D12</f>
-        <v>19.519445132524151</v>
-      </c>
-      <c r="Q7">
-        <v>30000</v>
-      </c>
-      <c r="R7" s="1">
-        <f>Q7/Sayfa1!$D12</f>
-        <v>10.616086910364839</v>
-      </c>
-      <c r="T7" s="1">
-        <f>S7/Sayfa1!$D12</f>
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
-        <f>U7/Sayfa1!$D12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2020</v>
-      </c>
-      <c r="B8">
-        <v>44000</v>
-      </c>
-      <c r="C8" s="1">
-        <f>B8/Sayfa1!$E13</f>
-        <v>14.950730547060822</v>
-      </c>
-      <c r="D8" s="1">
-        <v>30558</v>
-      </c>
-      <c r="E8" s="1">
-        <f>D8/Sayfa1!$D13</f>
-        <v>13.144865381058283</v>
-      </c>
-      <c r="F8" s="1">
+        <v>19.298332426146764</v>
+      </c>
+      <c r="E10" s="1">
+        <v>26400</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="8"/>
+        <v>13.063486565391656</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4772727272727273</v>
+      </c>
+      <c r="I10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10">
+        <v>30645</v>
+      </c>
+      <c r="W10" s="1">
+        <f t="shared" si="7"/>
+        <v>15.164035825622246</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2018</v>
+      </c>
+      <c r="B11" s="12">
+        <f>Sayfa1!D15</f>
+        <v>1603.12</v>
+      </c>
+      <c r="C11">
+        <v>32.5</v>
+      </c>
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>1.137381792331231</v>
-      </c>
-      <c r="G8">
-        <v>9700</v>
-      </c>
-      <c r="H8" s="1">
-        <f>G8/Sayfa1!$D11</f>
-        <v>2.2805285183617814</v>
-      </c>
-      <c r="I8">
+        <v>20.27296771295973</v>
+      </c>
+      <c r="E11" s="1">
+        <v>19686</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="8"/>
+        <v>12.279804381456161</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6509194351315657</v>
+      </c>
+      <c r="I11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11">
         <v>25000</v>
       </c>
-      <c r="J8" s="1">
-        <f>I8/Sayfa1!$D11</f>
-        <v>5.8776508205200546</v>
-      </c>
-      <c r="L8" s="1">
-        <f>K8/Sayfa1!$D11</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>36000</v>
-      </c>
-      <c r="N8" s="1">
-        <f>M8/Sayfa1!$D13</f>
-        <v>15.485802530208069</v>
-      </c>
-      <c r="O8">
-        <v>35000</v>
-      </c>
-      <c r="P8" s="1">
-        <f>O8/Sayfa1!$D11</f>
-        <v>8.2287111487280775</v>
-      </c>
-      <c r="R8" s="1">
-        <f>Q8/Sayfa1!$D11</f>
-        <v>0</v>
-      </c>
-      <c r="T8" s="1">
-        <f>S8/Sayfa1!$D11</f>
-        <v>0</v>
-      </c>
-      <c r="V8" s="1">
-        <f>U8/Sayfa1!$D11</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2019</v>
-      </c>
-      <c r="B9">
-        <v>39000</v>
-      </c>
-      <c r="C9" s="1">
-        <f>B9/Sayfa1!$E14</f>
-        <v>15.24390243902439</v>
-      </c>
-      <c r="D9" s="1">
-        <v>26400</v>
-      </c>
-      <c r="E9" s="1">
-        <f>D9/Sayfa1!$D14</f>
-        <v>13.063486565391656</v>
-      </c>
-      <c r="F9" s="1">
+      <c r="W11" s="1">
+        <f t="shared" si="7"/>
+        <v>15.594590548430562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12" s="12">
+        <f>Sayfa1!D16</f>
+        <v>1404.06</v>
+      </c>
+      <c r="C12">
+        <v>27.5</v>
+      </c>
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>1.1669091832963785</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9">
-        <v>30645</v>
-      </c>
-      <c r="V9" s="1">
-        <f>U9/Sayfa1!$D12</f>
-        <v>10.844332778937684</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2018</v>
-      </c>
-      <c r="B10">
-        <v>32500</v>
-      </c>
-      <c r="C10" s="1">
-        <f>B10/Sayfa1!$E13</f>
-        <v>11.043153244988108</v>
-      </c>
-      <c r="D10" s="1">
-        <v>19686</v>
-      </c>
-      <c r="E10" s="1">
-        <f>D10/Sayfa1!$D13</f>
-        <v>8.468153016935446</v>
-      </c>
-      <c r="F10" s="1">
+        <v>19.586057575887072</v>
+      </c>
+      <c r="E12" s="1">
+        <v>17050</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="8"/>
+        <v>12.143355697049984</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6129032258064517</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2016</v>
+      </c>
+      <c r="B13" s="12">
+        <f>Sayfa1!D17</f>
+        <v>1300.99</v>
+      </c>
+      <c r="C13">
+        <v>25</v>
+      </c>
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>1.3040805029033986</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10">
-        <v>25000</v>
-      </c>
-      <c r="V10" s="1">
-        <f>U10/Sayfa1!$D13</f>
-        <v>10.754029534866714</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2017</v>
-      </c>
-      <c r="B11">
-        <v>27500</v>
-      </c>
-      <c r="C11" s="1">
-        <f>B11/Sayfa1!$E14</f>
-        <v>10.748905565978736</v>
-      </c>
-      <c r="D11" s="1">
-        <v>17050</v>
-      </c>
-      <c r="E11" s="1">
-        <f>D11/Sayfa1!$D14</f>
-        <v>8.4368350734821114</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="0"/>
-        <v>1.2740447658819021</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2016</v>
-      </c>
-      <c r="B12">
-        <v>25000</v>
-      </c>
-      <c r="C12" s="1">
-        <f>B12/Sayfa1!$E17</f>
-        <v>15.179113539769277</v>
-      </c>
-      <c r="D12" s="1">
+        <v>19.216135404576512</v>
+      </c>
+      <c r="E13" s="1">
         <v>15125</v>
       </c>
-      <c r="E12" s="1">
-        <f>D12/Sayfa1!$D15</f>
-        <v>9.4347272818004893</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="0"/>
-        <v>1.608855570107433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="F13" s="1">
+        <f t="shared" si="8"/>
+        <v>11.625761919768792</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="1"/>
+        <v>1.6528925619834709</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2015</v>
       </c>
-      <c r="B13">
-        <v>22550</v>
-      </c>
-      <c r="C13" s="1">
-        <f>B13/Sayfa1!$E18</f>
-        <v>17.707106399685905</v>
-      </c>
-      <c r="D13" s="1">
+      <c r="C14">
+        <v>22.25</v>
+      </c>
+      <c r="E14" s="1">
         <v>13750</v>
       </c>
-      <c r="E13" s="1">
-        <f>D13/Sayfa1!$E18</f>
-        <v>10.797016097369454</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6400000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A14">
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2014</v>
       </c>
-      <c r="B14">
-        <v>20500</v>
-      </c>
-      <c r="C14" s="1">
-        <f>B14/Sayfa1!$E20</f>
-        <v>18.077601410934744</v>
-      </c>
-      <c r="D14" s="1">
+      <c r="C15">
+        <v>20.5</v>
+      </c>
+      <c r="E15" s="1">
         <v>12500</v>
       </c>
-      <c r="E14" s="1">
-        <f>D14/Sayfa1!$E20</f>
-        <v>11.022927689594356</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="0"/>
-        <v>1.64</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15">
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16">
         <v>2013</v>
       </c>
-      <c r="B15">
-        <v>18700</v>
-      </c>
-      <c r="C15" s="1">
-        <f>B15/Sayfa1!$E22</f>
-        <v>18.306412139011258</v>
-      </c>
-      <c r="D15" s="1">
+      <c r="C16">
+        <v>18.7</v>
+      </c>
+      <c r="E16" s="1">
         <v>9000</v>
       </c>
-      <c r="E15" s="1">
-        <f>D15/Sayfa1!$E22</f>
-        <v>8.8105726872246688</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0777777777777779</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A16">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>2012</v>
       </c>
-      <c r="B16">
-        <v>17000</v>
-      </c>
-      <c r="C16" s="1">
-        <f>B16/Sayfa1!$E24</f>
-        <v>18.075491759702285</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="E17" s="1">
         <v>10000</v>
       </c>
-      <c r="E16" s="1">
-        <f>D16/Sayfa1!$E24</f>
-        <v>10.63264221158958</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="0"/>
-        <v>1.6999999999999997</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>2011</v>
       </c>
-      <c r="B17">
-        <v>14800</v>
-      </c>
-      <c r="C17" s="1">
-        <f>B17/Sayfa1!$E26</f>
-        <v>17.682198327359618</v>
-      </c>
-      <c r="D17" s="1">
+      <c r="C18">
+        <v>14.8</v>
+      </c>
+      <c r="E18" s="1">
         <v>9500</v>
       </c>
-      <c r="E17" s="1">
-        <f>D17/Sayfa1!$E26</f>
-        <v>11.350059737156512</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="0"/>
-        <v>1.5578947368421052</v>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E20" s="1">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E21" s="1">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E22" s="1">
+        <f>E20/E21</f>
+        <v>1.6431226765799256</v>
       </c>
     </row>
   </sheetData>
@@ -1346,7 +1356,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B4:F90"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -1354,40 +1364,40 @@
   <cols>
     <col min="1" max="1" width="8.42578125" style="3"/>
     <col min="2" max="3" width="35.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="21" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" style="7" customWidth="1"/>
+    <col min="5" max="5" width="21" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" style="7" customWidth="1"/>
     <col min="7" max="16384" width="8.42578125" style="3"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
     </row>
     <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1395,14 +1405,14 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="9" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="8" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1580,7 +1590,7 @@
       <c r="C18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>1273.5</v>
       </c>
     </row>
@@ -1588,7 +1598,7 @@
       <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>1201.5</v>
       </c>
     </row>
@@ -1596,7 +1606,7 @@
       <c r="C20" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="8">
+      <c r="E20" s="7">
         <v>1134</v>
       </c>
     </row>
@@ -1604,7 +1614,7 @@
       <c r="C21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E21" s="8">
+      <c r="E21" s="7">
         <v>1071</v>
       </c>
     </row>
@@ -1612,7 +1622,7 @@
       <c r="C22" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E22" s="8">
+      <c r="E22" s="7">
         <v>1021.5</v>
       </c>
     </row>
@@ -1620,7 +1630,7 @@
       <c r="C23" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="8">
+      <c r="E23" s="7">
         <v>978.6</v>
       </c>
     </row>
@@ -1628,7 +1638,7 @@
       <c r="C24" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <v>940.5</v>
       </c>
     </row>
@@ -1636,7 +1646,7 @@
       <c r="C25" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="8">
+      <c r="E25" s="7">
         <v>886.5</v>
       </c>
     </row>
@@ -1644,7 +1654,7 @@
       <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="8">
+      <c r="E26" s="7">
         <v>837</v>
       </c>
     </row>
@@ -1652,7 +1662,7 @@
       <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="8">
+      <c r="E27" s="7">
         <v>796.5</v>
       </c>
     </row>
@@ -1660,7 +1670,7 @@
       <c r="C28" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E28" s="8">
+      <c r="E28" s="7">
         <v>760.5</v>
       </c>
     </row>
@@ -1668,7 +1678,7 @@
       <c r="C29" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E29" s="8">
+      <c r="E29" s="7">
         <v>729</v>
       </c>
     </row>
@@ -1676,7 +1686,7 @@
       <c r="C30" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E30" s="8">
+      <c r="E30" s="7">
         <v>693</v>
       </c>
     </row>
@@ -1684,7 +1694,7 @@
       <c r="C31" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E31" s="8">
+      <c r="E31" s="7">
         <v>666</v>
       </c>
     </row>
@@ -1692,7 +1702,7 @@
       <c r="C32" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="E32" s="8">
+      <c r="E32" s="7">
         <v>638.70000000000005</v>
       </c>
     </row>
@@ -1700,7 +1710,7 @@
       <c r="C33" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="E33" s="8">
+      <c r="E33" s="7">
         <v>608.4</v>
       </c>
     </row>
@@ -1708,7 +1718,7 @@
       <c r="C34" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="8">
+      <c r="E34" s="7">
         <v>585</v>
       </c>
     </row>
@@ -1716,7 +1726,7 @@
       <c r="C35" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E35" s="8">
+      <c r="E35" s="7">
         <v>562.5</v>
       </c>
     </row>
@@ -1724,7 +1734,7 @@
       <c r="C36" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E36" s="8">
+      <c r="E36" s="7">
         <v>531</v>
       </c>
     </row>
@@ -1732,7 +1742,7 @@
       <c r="C37" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E37" s="8">
+      <c r="E37" s="7">
         <v>488.7</v>
       </c>
     </row>
@@ -1740,7 +1750,7 @@
       <c r="C38" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="8">
+      <c r="E38" s="7">
         <v>444150000</v>
       </c>
     </row>
@@ -1748,7 +1758,7 @@
       <c r="C39" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E39" s="8">
+      <c r="E39" s="7">
         <v>423000000</v>
       </c>
     </row>
@@ -1756,7 +1766,7 @@
       <c r="C40" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E40" s="8">
+      <c r="E40" s="7">
         <v>306000000</v>
       </c>
     </row>
@@ -1764,7 +1774,7 @@
       <c r="C41" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E41" s="8">
+      <c r="E41" s="7">
         <v>250875000</v>
       </c>
     </row>
@@ -1772,7 +1782,7 @@
       <c r="C42" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="8">
+      <c r="E42" s="7">
         <v>222000750</v>
       </c>
     </row>
@@ -1780,7 +1790,7 @@
       <c r="C43" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E43" s="8">
+      <c r="E43" s="7">
         <v>167940000</v>
       </c>
     </row>
@@ -1788,7 +1798,7 @@
       <c r="C44" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="8">
+      <c r="E44" s="7">
         <v>146947500</v>
       </c>
     </row>
@@ -1796,7 +1806,7 @@
       <c r="C45" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E45" s="8">
+      <c r="E45" s="7">
         <v>139950000</v>
       </c>
     </row>
@@ -1804,7 +1814,7 @@
       <c r="C46" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E46" s="8">
+      <c r="E46" s="7">
         <v>118800000</v>
       </c>
     </row>
@@ -1812,7 +1822,7 @@
       <c r="C47" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="8">
+      <c r="E47" s="7">
         <v>109800000</v>
       </c>
     </row>

--- a/Asgari-ucret.xlsx
+++ b/Asgari-ucret.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\yzhn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08B9E91B-5842-4BDB-8A48-E4283965473F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67E5C6-3E16-4C50-A817-4916BE000DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
   <si>
     <t>agst</t>
   </si>
@@ -302,6 +302,12 @@
   </si>
   <si>
     <t>Ls</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>net</t>
   </si>
 </sst>
 </file>
@@ -352,7 +358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -380,6 +386,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,37 +703,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W22"/>
+  <dimension ref="A2:W20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.28515625" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" customWidth="1"/>
-    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" customWidth="1"/>
-    <col min="14" max="14" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" customWidth="1"/>
-    <col min="16" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.5703125" customWidth="1"/>
-    <col min="18" max="18" width="6" customWidth="1"/>
+    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" customWidth="1"/>
+    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="4.5703125" customWidth="1"/>
-    <col min="22" max="22" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="5.5703125" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:23" x14ac:dyDescent="0.25">
@@ -738,7 +746,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>88</v>
@@ -819,527 +827,624 @@
       <c r="G4" s="10" t="s">
         <v>87</v>
       </c>
+      <c r="H4" s="10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2024</v>
-      </c>
       <c r="C5" s="9"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B6" s="12">
-        <f>Sayfa1!D8</f>
-        <v>11402.32</v>
-      </c>
-      <c r="C6">
-        <v>366</v>
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <f>$B$6*D6</f>
+        <v>432</v>
       </c>
       <c r="D6" s="1">
-        <f>C6/B6*1000</f>
-        <v>32.098730784612258</v>
+        <v>24</v>
       </c>
       <c r="E6" s="1">
-        <v>216000</v>
+        <f>$B$6*F6</f>
+        <v>324</v>
       </c>
       <c r="F6" s="1">
-        <f>E6/B6</f>
-        <v>18.943513249935101</v>
+        <v>18</v>
       </c>
       <c r="G6" s="1">
         <f>D6/F6</f>
-        <v>1.6944444444444446</v>
-      </c>
-      <c r="H6">
-        <v>33600</v>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="H6" s="1">
+        <f>$B$6*I6</f>
+        <v>216</v>
       </c>
       <c r="I6" s="1">
-        <f>H6/Sayfa1!$D8</f>
-        <v>2.9467687277676826</v>
-      </c>
-      <c r="J6">
-        <v>78000</v>
+        <v>12</v>
+      </c>
+      <c r="J6" s="1">
+        <f>$B$6*K6</f>
+        <v>216</v>
       </c>
       <c r="K6" s="1">
-        <f>J6/B6</f>
-        <v>6.8407131180321201</v>
-      </c>
-      <c r="L6">
-        <v>84000</v>
+        <v>12</v>
+      </c>
+      <c r="L6" s="1">
+        <f>$B$6*M6</f>
+        <v>162</v>
       </c>
       <c r="M6" s="1">
-        <f>L6/B6</f>
-        <v>7.3669218194192059</v>
-      </c>
-      <c r="N6">
-        <v>180000</v>
+        <v>9</v>
+      </c>
+      <c r="N6" s="1">
+        <f>$B$6*O6</f>
+        <v>162</v>
       </c>
       <c r="O6" s="1">
-        <f>N6/B6</f>
-        <v>15.786261041612585</v>
-      </c>
-      <c r="P6">
-        <v>225000</v>
+        <v>9</v>
+      </c>
+      <c r="P6" s="1">
+        <f>$B$6*Q6</f>
+        <v>216</v>
       </c>
       <c r="Q6" s="1">
-        <f>P6/B6</f>
-        <v>19.732826302015731</v>
-      </c>
-      <c r="R6">
-        <v>96000</v>
+        <v>12</v>
+      </c>
+      <c r="R6" s="1">
+        <f>$B$6*S6</f>
+        <v>162</v>
       </c>
       <c r="S6" s="1">
-        <f>R6/B6</f>
-        <v>8.4193392221933792</v>
-      </c>
-      <c r="T6">
-        <v>83160</v>
+        <v>9</v>
+      </c>
+      <c r="T6" s="1">
+        <f>$B$6*U6</f>
+        <v>162</v>
       </c>
       <c r="U6" s="1">
-        <f>T6/B6</f>
-        <v>7.2932526012250136</v>
-      </c>
-      <c r="V6">
-        <v>96000</v>
+        <v>9</v>
+      </c>
+      <c r="V6" s="1">
+        <f>$B$6*W6</f>
+        <v>162</v>
       </c>
       <c r="W6" s="1">
-        <f>V6/B6</f>
-        <v>8.4193392221933792</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2022</v>
-      </c>
-      <c r="B7" s="12">
-        <f>Sayfa1!D10</f>
-        <v>5500.35</v>
-      </c>
-      <c r="C7">
-        <v>95</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" ref="D7:D13" si="0">C7/B7*1000</f>
-        <v>17.271628169116511</v>
-      </c>
-      <c r="E7" s="1">
-        <v>60032</v>
-      </c>
-      <c r="F7" s="1">
-        <f>E7/B7</f>
-        <v>10.914214549983182</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" ref="G7:G13" si="1">D7/F7</f>
-        <v>1.5824893390191899</v>
-      </c>
-      <c r="H7">
-        <v>19800</v>
-      </c>
-      <c r="I7" s="1">
-        <f>H7/Sayfa1!$D9</f>
-        <v>2.3275497249259418</v>
-      </c>
-      <c r="J7">
-        <v>60000</v>
-      </c>
-      <c r="K7" s="1">
-        <f t="shared" ref="K7:K9" si="2">J7/B7</f>
-        <v>10.908396738389374</v>
-      </c>
-      <c r="L7">
-        <v>42000</v>
-      </c>
-      <c r="M7" s="1">
-        <f t="shared" ref="M7:M9" si="3">L7/B7</f>
-        <v>7.635877716872562</v>
-      </c>
-      <c r="N7">
-        <v>84000</v>
-      </c>
-      <c r="O7" s="1">
-        <f t="shared" ref="O7:O9" si="4">N7/B7</f>
-        <v>15.271755433745124</v>
-      </c>
-      <c r="P7">
-        <v>82000</v>
-      </c>
-      <c r="Q7" s="1">
-        <f t="shared" ref="Q7:Q10" si="5">P7/B7</f>
-        <v>14.908142209132144</v>
-      </c>
-      <c r="R7">
-        <v>45000</v>
-      </c>
-      <c r="S7" s="1">
-        <f t="shared" ref="S7:S9" si="6">R7/B7</f>
-        <v>8.1812975537920316</v>
-      </c>
-      <c r="T7">
-        <v>48000</v>
-      </c>
-      <c r="U7" s="1">
-        <f>T7/B7</f>
-        <v>8.7267173907114994</v>
-      </c>
-      <c r="V7">
-        <v>48000</v>
-      </c>
-      <c r="W7" s="1">
-        <f t="shared" ref="W7:W11" si="7">V7/B7</f>
-        <v>8.7267173907114994</v>
-      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
+        <v>2023</v>
+      </c>
+      <c r="B8" s="12">
+        <f>Sayfa1!D10/1000</f>
+        <v>11.40232</v>
+      </c>
+      <c r="C8">
+        <f>366000/1000</f>
+        <v>366</v>
+      </c>
+      <c r="D8" s="1">
+        <f>C8/B8</f>
+        <v>32.098730784612258</v>
+      </c>
+      <c r="E8" s="1">
+        <f>216000/1000</f>
+        <v>216</v>
+      </c>
+      <c r="F8" s="1">
+        <f>E8/B8*1000</f>
+        <v>18943.513249935102</v>
+      </c>
+      <c r="G8" s="1">
+        <f>D8/F8*1000</f>
+        <v>1.6944444444444446</v>
+      </c>
+      <c r="H8">
+        <v>33.6</v>
+      </c>
+      <c r="I8" s="1">
+        <f>H8/Sayfa1!$D10</f>
+        <v>2.9467687277676827E-3</v>
+      </c>
+      <c r="J8">
+        <v>78</v>
+      </c>
+      <c r="K8" s="1">
+        <f>J8/B8</f>
+        <v>6.8407131180321201</v>
+      </c>
+      <c r="L8">
+        <v>84</v>
+      </c>
+      <c r="M8" s="1">
+        <f>L8/B8</f>
+        <v>7.3669218194192059</v>
+      </c>
+      <c r="N8">
+        <v>180</v>
+      </c>
+      <c r="O8" s="1">
+        <f>N8/B8</f>
+        <v>15.786261041612585</v>
+      </c>
+      <c r="P8">
+        <v>225</v>
+      </c>
+      <c r="Q8" s="1">
+        <f>P8/B8</f>
+        <v>19.732826302015731</v>
+      </c>
+      <c r="R8">
+        <v>96</v>
+      </c>
+      <c r="S8" s="1">
+        <f>R8/B8</f>
+        <v>8.4193392221933792</v>
+      </c>
+      <c r="T8">
+        <v>83.16</v>
+      </c>
+      <c r="U8" s="1">
+        <f>T8/B8</f>
+        <v>7.2932526012250136</v>
+      </c>
+      <c r="V8">
+        <v>96</v>
+      </c>
+      <c r="W8" s="1">
+        <f>V8/B8</f>
+        <v>8.4193392221933792</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="12">
+        <f>Sayfa1!D12/1000</f>
+        <v>5.5003500000000001</v>
+      </c>
+      <c r="C9">
+        <v>95</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" ref="D9:D15" si="0">C9/B9</f>
+        <v>17.271628169116511</v>
+      </c>
+      <c r="E9" s="1">
+        <f>60032/1000</f>
+        <v>60.031999999999996</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="F9:F15" si="1">E9/B9*1000</f>
+        <v>10914.214549983182</v>
+      </c>
+      <c r="G9" s="1">
+        <f>D9/F9*1000</f>
+        <v>1.5824893390191899</v>
+      </c>
+      <c r="H9">
+        <v>19.8</v>
+      </c>
+      <c r="I9" s="1">
+        <f>H9/Sayfa1!$D11</f>
+        <v>2.3275497249259417E-3</v>
+      </c>
+      <c r="J9">
+        <v>60</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" ref="K9:K11" si="2">J9/B9</f>
+        <v>10.908396738389374</v>
+      </c>
+      <c r="L9">
+        <v>42</v>
+      </c>
+      <c r="M9" s="1">
+        <f t="shared" ref="M9:M11" si="3">L9/B9</f>
+        <v>7.6358777168725629</v>
+      </c>
+      <c r="N9">
+        <v>84</v>
+      </c>
+      <c r="O9" s="1">
+        <f t="shared" ref="O9:O11" si="4">N9/B9</f>
+        <v>15.271755433745126</v>
+      </c>
+      <c r="P9">
+        <v>82</v>
+      </c>
+      <c r="Q9" s="1">
+        <f t="shared" ref="Q9:Q11" si="5">P9/B9</f>
+        <v>14.908142209132146</v>
+      </c>
+      <c r="R9">
+        <v>45</v>
+      </c>
+      <c r="S9" s="1">
+        <f t="shared" ref="S9:S10" si="6">R9/B9</f>
+        <v>8.1812975537920316</v>
+      </c>
+      <c r="T9">
+        <v>48</v>
+      </c>
+      <c r="U9" s="1">
+        <f>T9/B9</f>
+        <v>8.7267173907114994</v>
+      </c>
+      <c r="V9">
+        <v>48</v>
+      </c>
+      <c r="W9" s="1">
+        <f t="shared" ref="W9:W13" si="7">V9/B9</f>
+        <v>8.7267173907114994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B8" s="12">
-        <f>Sayfa1!D12</f>
-        <v>2825.9</v>
-      </c>
-      <c r="C8">
+      <c r="B10" s="12">
+        <f>Sayfa1!D14/1000</f>
+        <v>2.8259000000000003</v>
+      </c>
+      <c r="C10">
         <v>52</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>18.401217311299053</v>
       </c>
-      <c r="E8" s="1">
-        <v>34092</v>
-      </c>
-      <c r="F8" s="1">
-        <f t="shared" ref="F8:F13" si="8">E8/B8</f>
-        <v>12.064121164938603</v>
-      </c>
-      <c r="G8" s="1">
+      <c r="E10" s="1">
+        <f>34092/1000</f>
+        <v>34.091999999999999</v>
+      </c>
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
+        <v>12064.121164938602</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" ref="G10:G15" si="8">D10/F10*1000</f>
         <v>1.525284524228558</v>
       </c>
-      <c r="H8">
-        <v>12000</v>
-      </c>
-      <c r="I8" s="1">
-        <f>H8/Sayfa1!$D10</f>
-        <v>2.1816793476778749</v>
-      </c>
-      <c r="J8">
-        <v>30000</v>
-      </c>
-      <c r="K8" s="1">
+      <c r="H10">
+        <v>12</v>
+      </c>
+      <c r="I10" s="1">
+        <f>H10/Sayfa1!$D12</f>
+        <v>2.1816793476778749E-3</v>
+      </c>
+      <c r="J10">
+        <v>30</v>
+      </c>
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>10.616086910364839</v>
       </c>
-      <c r="L8">
-        <v>24000</v>
-      </c>
-      <c r="M8" s="1">
+      <c r="L10">
+        <v>24</v>
+      </c>
+      <c r="M10" s="1">
         <f t="shared" si="3"/>
         <v>8.4928695282918714</v>
       </c>
-      <c r="N8">
-        <v>28800</v>
-      </c>
-      <c r="O8" s="1">
+      <c r="N10">
+        <v>28.8</v>
+      </c>
+      <c r="O10" s="1">
         <f t="shared" si="4"/>
         <v>10.191443433950246</v>
       </c>
-      <c r="P8">
-        <v>55160</v>
-      </c>
-      <c r="Q8" s="1">
+      <c r="P10">
+        <v>55.16</v>
+      </c>
+      <c r="Q10" s="1">
         <f t="shared" si="5"/>
-        <v>19.519445132524151</v>
-      </c>
-      <c r="R8">
-        <v>30000</v>
-      </c>
-      <c r="S8" s="1">
+        <v>19.519445132524147</v>
+      </c>
+      <c r="R10">
+        <v>30</v>
+      </c>
+      <c r="S10" s="1">
         <f t="shared" si="6"/>
         <v>10.616086910364839</v>
       </c>
-      <c r="U8" s="1"/>
-      <c r="W8" s="1">
+      <c r="U10" s="1"/>
+      <c r="W10" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B9" s="12">
-        <f>Sayfa1!D13</f>
-        <v>2324.71</v>
-      </c>
-      <c r="C9">
+      <c r="B11" s="12">
+        <f>Sayfa1!D15/1000</f>
+        <v>2.3247100000000001</v>
+      </c>
+      <c r="C11">
         <v>44</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>18.927091981365415</v>
-      </c>
-      <c r="E9" s="1">
-        <v>30558</v>
-      </c>
-      <c r="F9" s="1">
+        <v>18.927091981365418</v>
+      </c>
+      <c r="E11" s="1">
+        <f>30558/1000</f>
+        <v>30.558</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>13144.865381058284</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="8"/>
-        <v>13.144865381058283</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4398848092152625</v>
-      </c>
-      <c r="H9">
-        <v>9700</v>
-      </c>
-      <c r="I9" s="1">
-        <f>H9/Sayfa1!$D11</f>
-        <v>2.2805285183617814</v>
-      </c>
-      <c r="J9">
-        <v>25000</v>
-      </c>
-      <c r="K9" s="1">
+        <v>1.4398848092152627</v>
+      </c>
+      <c r="H11">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="I11" s="1">
+        <f>H11/Sayfa1!$D13</f>
+        <v>2.280528518361781E-3</v>
+      </c>
+      <c r="J11">
+        <v>25</v>
+      </c>
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>10.754029534866714</v>
       </c>
-      <c r="M9" s="1">
+      <c r="M11" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N9">
-        <v>36000</v>
-      </c>
-      <c r="O9" s="1">
+      <c r="N11">
+        <v>36</v>
+      </c>
+      <c r="O11" s="1">
         <f t="shared" si="4"/>
         <v>15.485802530208069</v>
       </c>
-      <c r="P9">
-        <v>35000</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="P11">
+        <v>35</v>
+      </c>
+      <c r="Q11" s="1">
         <f t="shared" si="5"/>
         <v>15.055641348813401</v>
       </c>
-      <c r="S9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="W9" s="1">
+      <c r="S11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="W11" s="1">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>2019</v>
       </c>
-      <c r="B10" s="12">
-        <f>Sayfa1!D14</f>
-        <v>2020.9</v>
-      </c>
-      <c r="C10">
+      <c r="B12" s="12">
+        <f>Sayfa1!D16/1000</f>
+        <v>2.0209000000000001</v>
+      </c>
+      <c r="C12">
         <v>39</v>
       </c>
-      <c r="D10" s="1">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>19.298332426146764</v>
       </c>
-      <c r="E10" s="1">
-        <v>26400</v>
-      </c>
-      <c r="F10" s="1">
+      <c r="E12" s="1">
+        <f>26400/1000</f>
+        <v>26.4</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>13063.486565391657</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="8"/>
-        <v>13.063486565391656</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="1"/>
         <v>1.4772727272727273</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10">
-        <v>30645</v>
-      </c>
-      <c r="W10" s="1">
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12">
+        <v>30.65</v>
+      </c>
+      <c r="W12" s="1">
         <f t="shared" si="7"/>
-        <v>15.164035825622246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A11">
+        <v>15.166509970805086</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13">
         <v>2018</v>
       </c>
-      <c r="B11" s="12">
-        <f>Sayfa1!D15</f>
-        <v>1603.12</v>
-      </c>
-      <c r="C11">
+      <c r="B13" s="12">
+        <f>Sayfa1!D17/1000</f>
+        <v>1.6031199999999999</v>
+      </c>
+      <c r="C13">
         <v>32.5</v>
       </c>
-      <c r="D11" s="1">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>20.27296771295973</v>
       </c>
-      <c r="E11" s="1">
-        <v>19686</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="E13" s="1">
+        <f>19686/1000</f>
+        <v>19.686</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>12279.804381456161</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="8"/>
-        <v>12.279804381456161</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="1"/>
         <v>1.6509194351315657</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11">
-        <v>25000</v>
-      </c>
-      <c r="W11" s="1">
+      <c r="I13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13">
+        <v>25</v>
+      </c>
+      <c r="W13" s="1">
         <f t="shared" si="7"/>
         <v>15.594590548430562</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14">
         <v>2017</v>
       </c>
-      <c r="B12" s="12">
-        <f>Sayfa1!D16</f>
-        <v>1404.06</v>
-      </c>
-      <c r="C12">
+      <c r="B14" s="12">
+        <f>Sayfa1!D18/1000</f>
+        <v>1.4040599999999999</v>
+      </c>
+      <c r="C14">
         <v>27.5</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>19.586057575887072</v>
       </c>
-      <c r="E12" s="1">
-        <v>17050</v>
-      </c>
-      <c r="F12" s="1">
+      <c r="E14" s="1">
+        <f>17050/1000</f>
+        <v>17.05</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>12143.355697049985</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="8"/>
-        <v>12.143355697049984</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6129032258064517</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>1.6129032258064515</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>2016</v>
       </c>
-      <c r="B13" s="12">
-        <f>Sayfa1!D17</f>
-        <v>1300.99</v>
-      </c>
-      <c r="C13">
+      <c r="B15" s="12">
+        <f>Sayfa1!D19/1000</f>
+        <v>1.3009900000000001</v>
+      </c>
+      <c r="C15">
         <v>25</v>
       </c>
-      <c r="D13" s="1">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>19.216135404576512</v>
       </c>
-      <c r="E13" s="1">
-        <v>15125</v>
-      </c>
-      <c r="F13" s="1">
+      <c r="E15" s="1">
+        <f>15125/1000</f>
+        <v>15.125</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="1"/>
+        <v>11625.761919768789</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="8"/>
-        <v>11.625761919768792</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6528925619834709</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2015</v>
-      </c>
-      <c r="C14">
-        <v>22.25</v>
-      </c>
-      <c r="E14" s="1">
-        <v>13750</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2014</v>
-      </c>
-      <c r="C15">
-        <v>20.5</v>
-      </c>
-      <c r="E15" s="1">
-        <v>12500</v>
+        <v>1.6528925619834713</v>
       </c>
     </row>
     <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="C16">
-        <v>18.7</v>
+        <v>22.25</v>
       </c>
       <c r="E16" s="1">
-        <v>9000</v>
+        <f>13750/1000</f>
+        <v>13.75</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="C17">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="E17" s="1">
-        <v>10000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>2013</v>
+      </c>
+      <c r="C18">
+        <v>18.7</v>
+      </c>
+      <c r="E18" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="E19" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
         <v>2011</v>
       </c>
-      <c r="C18">
+      <c r="C20">
         <v>14.8</v>
       </c>
-      <c r="E18" s="1">
-        <v>9500</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" s="1">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E21" s="1">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E22" s="1">
-        <f>E20/E21</f>
-        <v>1.6431226765799256</v>
+        <v>9.5</v>
       </c>
     </row>
   </sheetData>
@@ -1354,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B4:F90"/>
+  <dimension ref="B4:F92"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
@@ -1372,14 +1477,14 @@
   <sheetData>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
-      <c r="C4" s="11"/>
+      <c r="C4" s="13"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="C5" s="11"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1388,7 +1493,7 @@
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="13" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1405,7 +1510,7 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="11"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1417,452 +1522,470 @@
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6">
-        <v>11402.32</v>
-      </c>
-      <c r="E8" s="6">
-        <v>13414.5</v>
-      </c>
-      <c r="F8" s="6">
-        <v>15762.04</v>
-      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="6">
-        <v>8506.7999999999993</v>
-      </c>
-      <c r="E9" s="6">
-        <v>10008</v>
-      </c>
-      <c r="F9" s="6">
-        <v>11759.4</v>
-      </c>
+      <c r="B9" s="4">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="8">
+        <v>18000</v>
+      </c>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D10" s="6">
-        <v>5500.35</v>
+        <v>11402.32</v>
       </c>
       <c r="E10" s="6">
-        <v>6471</v>
+        <v>13414.5</v>
       </c>
       <c r="F10" s="6">
-        <v>7603.43</v>
+        <v>15762.04</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B11" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D11" s="6">
-        <v>4253.3999999999996</v>
+        <v>8506.7999999999993</v>
       </c>
       <c r="E11" s="6">
-        <v>5004</v>
+        <v>10008</v>
       </c>
       <c r="F11" s="6">
-        <v>5879.7</v>
+        <v>11759.4</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B12" s="5" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D12" s="6">
-        <v>2825.9</v>
+        <v>5500.35</v>
       </c>
       <c r="E12" s="6">
-        <v>3577.5</v>
+        <v>6471</v>
       </c>
       <c r="F12" s="6">
-        <v>4203.5600000000004</v>
+        <v>7603.43</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B13" s="5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D13" s="6">
-        <v>2324.71</v>
+        <v>4253.3999999999996</v>
       </c>
       <c r="E13" s="6">
-        <v>2943</v>
+        <v>5004</v>
       </c>
       <c r="F13" s="6">
-        <v>3458.03</v>
+        <v>5879.7</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B14" s="5" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="6">
-        <v>2020.9</v>
+        <v>2825.9</v>
       </c>
       <c r="E14" s="6">
-        <v>2558.4</v>
+        <v>3577.5</v>
       </c>
       <c r="F14" s="6">
-        <v>3006.12</v>
+        <v>4203.5600000000004</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D15" s="6">
-        <v>1603.12</v>
+        <v>2324.71</v>
       </c>
       <c r="E15" s="6">
-        <v>2029.5</v>
+        <v>2943</v>
       </c>
       <c r="F15" s="6">
-        <v>2384.66</v>
+        <v>3458.03</v>
       </c>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B16" s="5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" s="6">
-        <v>1404.06</v>
+        <v>2020.9</v>
       </c>
       <c r="E16" s="6">
-        <v>1777.5</v>
+        <v>2558.4</v>
       </c>
       <c r="F16" s="6">
-        <v>2088.56</v>
+        <v>3006.12</v>
       </c>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B17" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1603.12</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2029.5</v>
+      </c>
+      <c r="F17" s="6">
+        <v>2384.66</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1404.06</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1777.5</v>
+      </c>
+      <c r="F18" s="6">
+        <v>2088.56</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D19" s="6">
         <v>1300.99</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E19" s="6">
         <v>1647</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F19" s="6">
         <v>1935.23</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C18" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="7">
-        <v>1273.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="7">
-        <v>1201.5</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C20" s="3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="E20" s="7">
-        <v>1134</v>
+        <v>1273.5</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C21" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E21" s="7">
-        <v>1071</v>
+        <v>1201.5</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C22" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E22" s="7">
-        <v>1021.5</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C23" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E23" s="7">
-        <v>978.6</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C24" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E24" s="7">
-        <v>940.5</v>
+        <v>1021.5</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E25" s="7">
-        <v>886.5</v>
+        <v>978.6</v>
       </c>
     </row>
     <row r="26" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E26" s="7">
-        <v>837</v>
+        <v>940.5</v>
       </c>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E27" s="7">
-        <v>796.5</v>
+        <v>886.5</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C28" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" s="7">
-        <v>760.5</v>
+        <v>837</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C29" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E29" s="7">
-        <v>729</v>
+        <v>796.5</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C30" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" s="7">
-        <v>693</v>
+        <v>760.5</v>
       </c>
     </row>
     <row r="31" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C31" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="7">
-        <v>666</v>
+        <v>729</v>
       </c>
     </row>
     <row r="32" spans="2:6" x14ac:dyDescent="0.35">
       <c r="C32" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E32" s="7">
-        <v>638.70000000000005</v>
+        <v>693</v>
       </c>
     </row>
     <row r="33" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C33" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="7">
-        <v>608.4</v>
+        <v>666</v>
       </c>
     </row>
     <row r="34" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C34" s="3" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E34" s="7">
-        <v>585</v>
+        <v>638.70000000000005</v>
       </c>
     </row>
     <row r="35" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C35" s="3" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="E35" s="7">
-        <v>562.5</v>
+        <v>608.4</v>
       </c>
     </row>
     <row r="36" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C36" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" s="7">
-        <v>531</v>
+        <v>585</v>
       </c>
     </row>
     <row r="37" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C37" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E37" s="7">
-        <v>488.7</v>
+        <v>562.5</v>
       </c>
     </row>
     <row r="38" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C38" s="3" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="E38" s="7">
-        <v>444150000</v>
+        <v>531</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C39" s="3" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E39" s="7">
-        <v>423000000</v>
+        <v>488.7</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C40" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E40" s="7">
-        <v>306000000</v>
+        <v>444150000</v>
       </c>
     </row>
     <row r="41" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C41" s="3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E41" s="7">
-        <v>250875000</v>
+        <v>423000000</v>
       </c>
     </row>
     <row r="42" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C42" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E42" s="7">
-        <v>222000750</v>
+        <v>306000000</v>
       </c>
     </row>
     <row r="43" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C43" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E43" s="7">
-        <v>167940000</v>
+        <v>250875000</v>
       </c>
     </row>
     <row r="44" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C44" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E44" s="7">
-        <v>146947500</v>
+        <v>222000750</v>
       </c>
     </row>
     <row r="45" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C45" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E45" s="7">
-        <v>139950000</v>
+        <v>167940000</v>
       </c>
     </row>
     <row r="46" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C46" s="3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E46" s="7">
-        <v>118800000</v>
+        <v>146947500</v>
       </c>
     </row>
     <row r="47" spans="3:5" x14ac:dyDescent="0.35">
       <c r="C47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E47" s="7">
+        <v>139950000</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C48" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E48" s="7">
+        <v>118800000</v>
+      </c>
+    </row>
+    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
+      <c r="C49" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E47" s="7">
+      <c r="E49" s="7">
         <v>109800000</v>
-      </c>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B76" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B78" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B80" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B82" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B84" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B86" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B88" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B90" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B92" s="3" t="s">
         <v>55</v>
       </c>
     </row>

--- a/Asgari-ucret.xlsx
+++ b/Asgari-ucret.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\yzhn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA67E5C6-3E16-4C50-A817-4916BE000DF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B625F5E9-4F58-47D5-A376-69D3E48CBB68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sayfa2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="103">
   <si>
     <t>agst</t>
   </si>
@@ -295,9 +296,6 @@
     <t>01.01.2008 - 30.06.2008            </t>
   </si>
   <si>
-    <t>brüt</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -308,6 +306,45 @@
   </si>
   <si>
     <t>net</t>
+  </si>
+  <si>
+    <t>adet</t>
+  </si>
+  <si>
+    <t>HACI</t>
+  </si>
+  <si>
+    <t>snyC</t>
+  </si>
+  <si>
+    <t>snyD</t>
+  </si>
+  <si>
+    <t>LS-dere</t>
+  </si>
+  <si>
+    <t>asgari ücret TL</t>
+  </si>
+  <si>
+    <t>Konum</t>
+  </si>
+  <si>
+    <t>AÜ-Adet</t>
+  </si>
+  <si>
+    <t>Bedel TL</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>ap</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1 / 2</t>
+  </si>
+  <si>
+    <t>tzg</t>
   </si>
 </sst>
 </file>
@@ -338,12 +375,60 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -358,7 +443,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -386,9 +471,43 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,53 +822,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:W20"/>
+  <dimension ref="A2:X20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="4.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="4.5703125" customWidth="1"/>
-    <col min="22" max="22" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="5.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>46</v>
+      </c>
       <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>1</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H2" t="s">
         <v>2</v>
@@ -773,14 +895,17 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="C3" s="9" t="s">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>8</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="15" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="10" t="s">
@@ -789,22 +914,22 @@
       <c r="G3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
+      <c r="N3" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="P3" t="s">
+      <c r="P3" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="27" t="s">
         <v>15</v>
       </c>
       <c r="T3" s="2" t="s">
@@ -815,7 +940,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>88</v>
+      </c>
       <c r="C4" s="9"/>
       <c r="D4" s="10" t="s">
         <v>47</v>
@@ -825,103 +953,109 @@
         <v>47</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>90</v>
+      </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="6" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="34">
         <v>2024</v>
       </c>
-      <c r="B6" s="12">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="34">
+        <v>16</v>
+      </c>
+      <c r="C6" s="34">
         <f>$B$6*D6</f>
-        <v>432</v>
-      </c>
-      <c r="D6" s="1">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1">
+        <v>320</v>
+      </c>
+      <c r="D6" s="35">
+        <v>20</v>
+      </c>
+      <c r="E6" s="34">
         <f>$B$6*F6</f>
-        <v>324</v>
-      </c>
-      <c r="F6" s="1">
-        <v>18</v>
+        <v>224</v>
+      </c>
+      <c r="F6" s="36">
+        <v>14</v>
       </c>
       <c r="G6" s="1">
         <f>D6/F6</f>
-        <v>1.3333333333333333</v>
-      </c>
-      <c r="H6" s="1">
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="H6" s="34">
         <f>$B$6*I6</f>
-        <v>216</v>
-      </c>
-      <c r="I6" s="1">
-        <v>12</v>
-      </c>
-      <c r="J6" s="1">
+        <v>80</v>
+      </c>
+      <c r="I6" s="37">
+        <v>5</v>
+      </c>
+      <c r="J6" s="34">
         <f>$B$6*K6</f>
-        <v>216</v>
-      </c>
-      <c r="K6" s="1">
-        <v>12</v>
-      </c>
-      <c r="L6" s="1">
+        <v>176</v>
+      </c>
+      <c r="K6" s="38">
+        <v>11</v>
+      </c>
+      <c r="L6" s="34">
         <f>$B$6*M6</f>
-        <v>162</v>
-      </c>
-      <c r="M6" s="1">
-        <v>9</v>
-      </c>
-      <c r="N6" s="1">
+        <v>128</v>
+      </c>
+      <c r="M6" s="39">
+        <v>8</v>
+      </c>
+      <c r="N6" s="34">
         <f>$B$6*O6</f>
-        <v>162</v>
-      </c>
-      <c r="O6" s="1">
-        <v>9</v>
-      </c>
-      <c r="P6" s="1">
+        <v>256</v>
+      </c>
+      <c r="O6" s="40">
+        <v>16</v>
+      </c>
+      <c r="P6" s="34">
         <f>$B$6*Q6</f>
-        <v>216</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>12</v>
-      </c>
-      <c r="R6" s="1">
+        <v>320</v>
+      </c>
+      <c r="Q6" s="41">
+        <v>20</v>
+      </c>
+      <c r="R6" s="34">
         <f>$B$6*S6</f>
-        <v>162</v>
-      </c>
-      <c r="S6" s="1">
-        <v>9</v>
-      </c>
-      <c r="T6" s="1">
+        <v>160</v>
+      </c>
+      <c r="S6" s="42">
+        <v>10</v>
+      </c>
+      <c r="T6" s="34">
         <f>$B$6*U6</f>
-        <v>162</v>
-      </c>
-      <c r="U6" s="1">
-        <v>9</v>
-      </c>
-      <c r="V6" s="1">
+        <v>160</v>
+      </c>
+      <c r="U6" s="42">
+        <f>S6</f>
+        <v>10</v>
+      </c>
+      <c r="V6" s="34">
         <f>$B$6*W6</f>
-        <v>162</v>
-      </c>
-      <c r="W6" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="W6" s="42">
+        <f>S6</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B7" s="12"/>
       <c r="C7" s="1"/>
       <c r="H7" s="1"/>
@@ -940,8 +1074,9 @@
       <c r="U7" s="1"/>
       <c r="V7" s="1"/>
       <c r="W7" s="1"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="1"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -950,31 +1085,29 @@
         <v>11.40232</v>
       </c>
       <c r="C8">
-        <f>366000/1000</f>
-        <v>366</v>
+        <v>240</v>
       </c>
       <c r="D8" s="1">
         <f>C8/B8</f>
-        <v>32.098730784612258</v>
+        <v>21.048348055483448</v>
       </c>
       <c r="E8" s="1">
-        <f>216000/1000</f>
-        <v>216</v>
+        <v>154</v>
       </c>
       <c r="F8" s="1">
-        <f>E8/B8*1000</f>
-        <v>18943.513249935102</v>
+        <f>E8/B8</f>
+        <v>13.506023335601878</v>
       </c>
       <c r="G8" s="1">
-        <f>D8/F8*1000</f>
-        <v>1.6944444444444446</v>
+        <f>D8/F8</f>
+        <v>1.5584415584415585</v>
       </c>
       <c r="H8">
         <v>33.6</v>
       </c>
       <c r="I8" s="1">
-        <f>H8/Sayfa1!$D10</f>
-        <v>2.9467687277676827E-3</v>
+        <f>H8/B8</f>
+        <v>2.9467687277676826</v>
       </c>
       <c r="J8">
         <v>78</v>
@@ -1026,7 +1159,7 @@
         <v>8.4193392221933792</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1046,53 +1179,53 @@
         <v>60.031999999999996</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9:F15" si="1">E9/B9*1000</f>
-        <v>10914.214549983182</v>
+        <f t="shared" ref="F9:F15" si="1">E9/B9</f>
+        <v>10.914214549983182</v>
       </c>
       <c r="G9" s="1">
-        <f>D9/F9*1000</f>
+        <f t="shared" ref="G9:G15" si="2">D9/F9</f>
         <v>1.5824893390191899</v>
       </c>
       <c r="H9">
         <v>19.8</v>
       </c>
       <c r="I9" s="1">
-        <f>H9/Sayfa1!$D11</f>
-        <v>2.3275497249259417E-3</v>
+        <f>H9/B9</f>
+        <v>3.599770923668494</v>
       </c>
       <c r="J9">
         <v>60</v>
       </c>
       <c r="K9" s="1">
-        <f t="shared" ref="K9:K11" si="2">J9/B9</f>
+        <f t="shared" ref="K9:K11" si="3">J9/B9</f>
         <v>10.908396738389374</v>
       </c>
       <c r="L9">
         <v>42</v>
       </c>
       <c r="M9" s="1">
-        <f t="shared" ref="M9:M11" si="3">L9/B9</f>
+        <f t="shared" ref="M9:M11" si="4">L9/B9</f>
         <v>7.6358777168725629</v>
       </c>
       <c r="N9">
         <v>84</v>
       </c>
       <c r="O9" s="1">
-        <f t="shared" ref="O9:O11" si="4">N9/B9</f>
+        <f t="shared" ref="O9:O11" si="5">N9/B9</f>
         <v>15.271755433745126</v>
       </c>
       <c r="P9">
         <v>82</v>
       </c>
       <c r="Q9" s="1">
-        <f t="shared" ref="Q9:Q11" si="5">P9/B9</f>
+        <f t="shared" ref="Q9:Q11" si="6">P9/B9</f>
         <v>14.908142209132146</v>
       </c>
       <c r="R9">
         <v>45</v>
       </c>
       <c r="S9" s="1">
-        <f t="shared" ref="S9:S10" si="6">R9/B9</f>
+        <f t="shared" ref="S9:S10" si="7">R9/B9</f>
         <v>8.1812975537920316</v>
       </c>
       <c r="T9">
@@ -1106,11 +1239,11 @@
         <v>48</v>
       </c>
       <c r="W9" s="1">
-        <f t="shared" ref="W9:W13" si="7">V9/B9</f>
+        <f t="shared" ref="W9:W13" si="8">V9/B9</f>
         <v>8.7267173907114994</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2021</v>
       </c>
@@ -1131,61 +1264,61 @@
       </c>
       <c r="F10" s="1">
         <f t="shared" si="1"/>
-        <v>12064.121164938602</v>
+        <v>12.064121164938602</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ref="G10:G15" si="8">D10/F10*1000</f>
-        <v>1.525284524228558</v>
+        <f t="shared" si="2"/>
+        <v>1.5252845242285582</v>
       </c>
       <c r="H10">
         <v>12</v>
       </c>
       <c r="I10" s="1">
-        <f>H10/Sayfa1!$D12</f>
-        <v>2.1816793476778749E-3</v>
+        <f>H10/B10</f>
+        <v>4.2464347641459357</v>
       </c>
       <c r="J10">
         <v>30</v>
       </c>
       <c r="K10" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.616086910364839</v>
       </c>
       <c r="L10">
         <v>24</v>
       </c>
       <c r="M10" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>8.4928695282918714</v>
       </c>
       <c r="N10">
         <v>28.8</v>
       </c>
       <c r="O10" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>10.191443433950246</v>
       </c>
       <c r="P10">
         <v>55.16</v>
       </c>
       <c r="Q10" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>19.519445132524147</v>
       </c>
       <c r="R10">
         <v>30</v>
       </c>
       <c r="S10" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>10.616086910364839</v>
       </c>
       <c r="U10" s="1"/>
       <c r="W10" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2020</v>
       </c>
@@ -1206,52 +1339,52 @@
       </c>
       <c r="F11" s="1">
         <f t="shared" si="1"/>
-        <v>13144.865381058284</v>
+        <v>13.144865381058283</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.4398848092152627</v>
       </c>
       <c r="H11">
         <v>9.6999999999999993</v>
       </c>
       <c r="I11" s="1">
-        <f>H11/Sayfa1!$D13</f>
-        <v>2.280528518361781E-3</v>
+        <f>H11/B11</f>
+        <v>4.172563459528285</v>
       </c>
       <c r="J11">
         <v>25</v>
       </c>
       <c r="K11" s="1">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.754029534866714</v>
       </c>
       <c r="M11" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="N11">
         <v>36</v>
       </c>
       <c r="O11" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>15.485802530208069</v>
       </c>
       <c r="P11">
         <v>35</v>
       </c>
       <c r="Q11" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>15.055641348813401</v>
       </c>
       <c r="S11" s="1"/>
       <c r="U11" s="1"/>
       <c r="W11" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2019</v>
       </c>
@@ -1272,10 +1405,10 @@
       </c>
       <c r="F12" s="1">
         <f t="shared" si="1"/>
-        <v>13063.486565391657</v>
+        <v>13.063486565391656</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.4772727272727273</v>
       </c>
       <c r="I12" s="1"/>
@@ -1289,11 +1422,11 @@
         <v>30.65</v>
       </c>
       <c r="W12" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.166509970805086</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
@@ -1314,10 +1447,10 @@
       </c>
       <c r="F13" s="1">
         <f t="shared" si="1"/>
-        <v>12279.804381456161</v>
+        <v>12.279804381456161</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.6509194351315657</v>
       </c>
       <c r="I13" s="1"/>
@@ -1331,11 +1464,11 @@
         <v>25</v>
       </c>
       <c r="W13" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>15.594590548430562</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2017</v>
       </c>
@@ -1356,14 +1489,17 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="1"/>
-        <v>12143.355697049985</v>
+        <v>12.143355697049985</v>
       </c>
       <c r="G14" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="2"/>
         <v>1.6129032258064515</v>
       </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="K14" s="43" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -1384,14 +1520,28 @@
       </c>
       <c r="F15" s="1">
         <f t="shared" si="1"/>
-        <v>11625.761919768789</v>
+        <v>11.62576191976879</v>
       </c>
       <c r="G15" s="1">
-        <f t="shared" si="8"/>
-        <v>1.6528925619834713</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+        <f t="shared" si="2"/>
+        <v>1.6528925619834711</v>
+      </c>
+      <c r="I15" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15">
+        <v>1768.44</v>
+      </c>
+      <c r="K15">
+        <f>J15/2</f>
+        <v>884.22</v>
+      </c>
+      <c r="L15">
+        <f>K15</f>
+        <v>884.22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -1402,8 +1552,24 @@
         <f>13750/1000</f>
         <v>13.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>100</v>
+      </c>
+      <c r="J16">
+        <v>501</v>
+      </c>
+      <c r="K16">
+        <f>J16</f>
+        <v>501</v>
+      </c>
+      <c r="L16">
+        <v>410</v>
+      </c>
+      <c r="M16" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -1413,8 +1579,20 @@
       <c r="E17" s="1">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <f>J16/J15</f>
+        <v>0.283300536065685</v>
+      </c>
+      <c r="K17" s="1">
+        <f>K15/K16</f>
+        <v>1.7649101796407187</v>
+      </c>
+      <c r="L17" s="1">
+        <f>L15/L16</f>
+        <v>2.1566341463414633</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -1425,7 +1603,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -1436,7 +1614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2011</v>
       </c>
@@ -1449,7 +1627,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
@@ -1477,14 +1655,14 @@
   <sheetData>
     <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
-      <c r="C4" s="13"/>
+      <c r="C4" s="33"/>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.35">
       <c r="B5" s="4"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="33"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1493,7 +1671,7 @@
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8" t="s">
@@ -1510,7 +1688,7 @@
       <c r="B7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="13"/>
+      <c r="C7" s="33"/>
       <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
@@ -1997,4 +2175,351 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7217AA-F155-484D-A0DD-5EF63816DA92}">
+  <dimension ref="C1:J18"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="6" width="8.5703125" style="30" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="29" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C1">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="2" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="12">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="H3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>96</v>
+      </c>
+      <c r="D4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="F4" s="31"/>
+      <c r="G4" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="H4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13">
+        <v>12</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" ref="E5:E16" si="0">$D$2*D5</f>
+        <v>216</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" ref="H5:H16" si="1">E5*G5</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="13">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="29">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="16">
+        <v>14</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>252</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="29">
+        <v>0.10630000000000001</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="1"/>
+        <v>26.787600000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="17">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="29">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="19">
+        <v>11</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>198</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="1"/>
+        <v>198</v>
+      </c>
+    </row>
+    <row r="10" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="21">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="29">
+        <v>0.76461599999999996</v>
+      </c>
+      <c r="H10" s="1">
+        <f t="shared" si="1"/>
+        <v>110.104704</v>
+      </c>
+    </row>
+    <row r="11" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="23">
+        <v>16</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>288</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="29">
+        <f>G10</f>
+        <v>0.76461599999999996</v>
+      </c>
+      <c r="H11" s="1">
+        <f t="shared" si="1"/>
+        <v>220.209408</v>
+      </c>
+    </row>
+    <row r="12" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="26">
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="29">
+        <f>G10</f>
+        <v>0.76461599999999996</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>137.63087999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="26">
+        <v>10</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="29">
+        <f>G11</f>
+        <v>0.76461599999999996</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="1"/>
+        <v>137.63087999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="28">
+        <v>10</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="29">
+        <f>G13</f>
+        <v>0.76461599999999996</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" si="1"/>
+        <v>137.63087999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="28">
+        <f>D14</f>
+        <v>10</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="29">
+        <f>G14</f>
+        <v>0.76461599999999996</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="1"/>
+        <v>137.63087999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="28">
+        <f>D14</f>
+        <v>10</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="29">
+        <f>G15</f>
+        <v>0.76461599999999996</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" si="1"/>
+        <v>137.63087999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="4:10" x14ac:dyDescent="0.25">
+      <c r="D18" s="1">
+        <f>E16+E15+E14+E13+E11+E10+E9+E8+E7+E5</f>
+        <v>1908</v>
+      </c>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="29">
+        <f>H18/D18</f>
+        <v>0.74594135849056586</v>
+      </c>
+      <c r="H18" s="1">
+        <f>SUM(H5:H16)</f>
+        <v>1423.2561119999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Asgari-ucret.xlsx
+++ b/Asgari-ucret.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\aaGitMe\yzhn\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7898C59E-AEED-47BE-AFEA-79453CC7A314}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0669CD27-C329-4629-BAE4-B88847E8118D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sayfa2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sayfa3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sayfa2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="108">
   <si>
     <t>asgari</t>
   </si>
@@ -351,17 +352,28 @@
   </si>
   <si>
     <t>snyD</t>
+  </si>
+  <si>
+    <t>emekli maaşı</t>
+  </si>
+  <si>
+    <t>asgari ücret oranında artsa idi</t>
+  </si>
+  <si>
+    <t>asg.ücr göre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="dd/mmm"/>
     <numFmt numFmtId="165" formatCode="%0"/>
+    <numFmt numFmtId="168" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="173" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -379,6 +391,13 @@
     <font>
       <b/>
       <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -459,14 +478,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -531,9 +548,21 @@
     <xf numFmtId="2" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Yüzde" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -915,7 +944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:X20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AB9" sqref="AB9"/>
     </sheetView>
   </sheetViews>
@@ -924,45 +953,45 @@
     <col min="1" max="1" width="5.140625" customWidth="1"/>
     <col min="2" max="2" width="6.140625" customWidth="1"/>
     <col min="3" max="3" width="6.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7" style="3" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="4.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="7" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.5703125" style="1" customWidth="1"/>
     <col min="8" max="8" width="5.140625" customWidth="1"/>
-    <col min="9" max="9" width="4.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="4.5703125" style="3" customWidth="1"/>
     <col min="10" max="10" width="8.42578125" customWidth="1"/>
-    <col min="11" max="11" width="7.28515625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7.28515625" style="3" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" customWidth="1"/>
-    <col min="13" max="13" width="4.5703125" style="4" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" style="3" customWidth="1"/>
     <col min="14" max="14" width="5.140625" customWidth="1"/>
-    <col min="15" max="15" width="5.7109375" style="4" customWidth="1"/>
+    <col min="15" max="15" width="5.7109375" style="3" customWidth="1"/>
     <col min="16" max="16" width="6.42578125" customWidth="1"/>
-    <col min="17" max="17" width="5.7109375" style="4" customWidth="1"/>
+    <col min="17" max="17" width="5.7109375" style="3" customWidth="1"/>
     <col min="18" max="18" width="5" customWidth="1"/>
-    <col min="19" max="19" width="5.7109375" style="4" customWidth="1"/>
+    <col min="19" max="19" width="5.7109375" style="3" customWidth="1"/>
     <col min="20" max="20" width="6.28515625" customWidth="1"/>
-    <col min="21" max="21" width="4.5703125" style="4" customWidth="1"/>
+    <col min="21" max="21" width="4.5703125" style="3" customWidth="1"/>
     <col min="22" max="22" width="6.28515625" customWidth="1"/>
-    <col min="23" max="23" width="5.7109375" style="4" customWidth="1"/>
+    <col min="23" max="23" width="5.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" t="s">
@@ -991,44 +1020,44 @@
       <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="R3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="17"/>
-      <c r="V3" s="16" t="s">
+      <c r="U3" s="16"/>
+      <c r="V3" s="15" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1036,217 +1065,217 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="4"/>
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="6" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="6" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="C5" s="5"/>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="4"/>
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="6" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:24" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="18">
+      <c r="G5" s="5"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
         <v>2024</v>
       </c>
-      <c r="B6" s="18">
+      <c r="B6" s="17">
         <v>17</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="17">
         <f>$B$6*D6</f>
         <v>340</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="18">
         <v>20</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="17">
         <f>$B$6*F6</f>
         <v>408</v>
       </c>
-      <c r="F6" s="20">
+      <c r="F6" s="19">
         <v>24</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f>D6/F6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <f>$B$6*I6</f>
         <v>102</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>6</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <f>$B$6*K6</f>
         <v>187</v>
       </c>
-      <c r="K6" s="22">
+      <c r="K6" s="21">
         <v>11</v>
       </c>
-      <c r="L6" s="18">
+      <c r="L6" s="17">
         <f>$B$6*M6</f>
         <v>170</v>
       </c>
-      <c r="M6" s="23">
+      <c r="M6" s="22">
         <v>10</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <f>$B$6*O6</f>
         <v>272</v>
       </c>
-      <c r="O6" s="24">
+      <c r="O6" s="23">
         <v>16</v>
       </c>
-      <c r="P6" s="18">
+      <c r="P6" s="17">
         <f>$B$6*Q6</f>
         <v>340</v>
       </c>
-      <c r="Q6" s="25">
+      <c r="Q6" s="24">
         <v>20</v>
       </c>
-      <c r="R6" s="18">
+      <c r="R6" s="17">
         <f>$B$6*S6</f>
         <v>170</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="25">
         <v>10</v>
       </c>
-      <c r="T6" s="18">
+      <c r="T6" s="17">
         <f>$B$6*U6</f>
         <v>170</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="25">
         <f>S6</f>
         <v>10</v>
       </c>
-      <c r="V6" s="18">
+      <c r="V6" s="17">
         <f>$B$6*W6</f>
         <v>170</v>
       </c>
-      <c r="W6" s="26">
+      <c r="W6" s="25">
         <f>S6</f>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="B7" s="27"/>
-      <c r="C7" s="3"/>
-      <c r="H7" s="3"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="3"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="2"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2023</v>
       </c>
-      <c r="B8" s="27">
-        <f>Sayfa1!D10/1000</f>
+      <c r="B8" s="26">
+        <f>Sayfa1!E10/1000</f>
         <v>11.40232</v>
       </c>
       <c r="C8">
         <v>240</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f t="shared" ref="D8:D15" si="0">C8/B8</f>
         <v>21.048348055483448</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>154</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" ref="F8:F15" si="1">E8/B8</f>
         <v>13.506023335601878</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" ref="G8:G15" si="2">D8/F8</f>
         <v>1.5584415584415585</v>
       </c>
       <c r="H8">
         <v>33.6</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="1">
         <f>H8/B8</f>
         <v>2.9467687277676826</v>
       </c>
       <c r="J8">
         <v>78</v>
       </c>
-      <c r="K8" s="2">
+      <c r="K8" s="1">
         <f>J8/B8</f>
         <v>6.8407131180321201</v>
       </c>
       <c r="L8">
         <v>84</v>
       </c>
-      <c r="M8" s="2">
+      <c r="M8" s="1">
         <f>L8/B8</f>
         <v>7.3669218194192059</v>
       </c>
       <c r="N8">
         <v>183</v>
       </c>
-      <c r="O8" s="2">
+      <c r="O8" s="1">
         <f>N8/B8</f>
         <v>16.049365392306129</v>
       </c>
       <c r="P8">
         <v>225</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="Q8" s="1">
         <f>P8/B8</f>
         <v>19.732826302015731</v>
       </c>
       <c r="R8">
         <v>96</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="1">
         <f>R8/B8</f>
         <v>8.4193392221933792</v>
       </c>
       <c r="T8">
         <v>83.16</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="1">
         <f>T8/B8</f>
         <v>7.2932526012250136</v>
       </c>
       <c r="V8">
         <v>96</v>
       </c>
-      <c r="W8" s="2">
+      <c r="W8" s="1">
         <f t="shared" ref="W8:W13" si="3">V8/B8</f>
         <v>8.4193392221933792</v>
       </c>
@@ -1255,82 +1284,82 @@
       <c r="A9">
         <v>2022</v>
       </c>
-      <c r="B9" s="27">
-        <f>Sayfa1!D12/1000</f>
+      <c r="B9" s="26">
+        <f>Sayfa1!E12/1000</f>
         <v>5.5003500000000001</v>
       </c>
       <c r="C9">
         <v>95</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f t="shared" si="0"/>
         <v>17.271628169116511</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f>60032/1000</f>
         <v>60.031999999999996</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>10.914214549983182</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>1.5824893390191899</v>
       </c>
       <c r="H9">
         <v>19.8</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="1">
         <f>H9/B9</f>
         <v>3.599770923668494</v>
       </c>
       <c r="J9">
         <v>60</v>
       </c>
-      <c r="K9" s="2">
+      <c r="K9" s="1">
         <f>J9/B9</f>
         <v>10.908396738389374</v>
       </c>
       <c r="L9">
         <v>42</v>
       </c>
-      <c r="M9" s="2">
+      <c r="M9" s="1">
         <f>L9/B9</f>
         <v>7.6358777168725629</v>
       </c>
       <c r="N9">
         <v>84</v>
       </c>
-      <c r="O9" s="2">
+      <c r="O9" s="1">
         <f>N9/B9</f>
         <v>15.271755433745126</v>
       </c>
       <c r="P9">
         <v>82</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="Q9" s="1">
         <f>P9/B9</f>
         <v>14.908142209132146</v>
       </c>
       <c r="R9">
         <v>45</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="1">
         <f>R9/B9</f>
         <v>8.1812975537920316</v>
       </c>
       <c r="T9">
         <v>48</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="1">
         <f>T9/B9</f>
         <v>8.7267173907114994</v>
       </c>
       <c r="V9">
         <v>48</v>
       </c>
-      <c r="W9" s="2">
+      <c r="W9" s="1">
         <f t="shared" si="3"/>
         <v>8.7267173907114994</v>
       </c>
@@ -1339,73 +1368,73 @@
       <c r="A10">
         <v>2021</v>
       </c>
-      <c r="B10" s="27">
-        <f>Sayfa1!D14/1000</f>
+      <c r="B10" s="26">
+        <f>Sayfa1!E14/1000</f>
         <v>2.8259000000000003</v>
       </c>
       <c r="C10">
         <v>52</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <f t="shared" si="0"/>
         <v>18.401217311299053</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f>34092/1000</f>
         <v>34.091999999999999</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>12.064121164938602</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>1.5252845242285582</v>
       </c>
       <c r="H10">
         <v>12</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="1">
         <f>H10/B10</f>
         <v>4.2464347641459357</v>
       </c>
       <c r="J10">
         <v>30</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10" s="1">
         <f>J10/B10</f>
         <v>10.616086910364839</v>
       </c>
       <c r="L10">
         <v>24</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10" s="1">
         <f>L10/B10</f>
         <v>8.4928695282918714</v>
       </c>
       <c r="N10">
         <v>28.8</v>
       </c>
-      <c r="O10" s="2">
+      <c r="O10" s="1">
         <f>N10/B10</f>
         <v>10.191443433950246</v>
       </c>
       <c r="P10">
         <v>55.16</v>
       </c>
-      <c r="Q10" s="2">
+      <c r="Q10" s="1">
         <f>P10/B10</f>
         <v>19.519445132524147</v>
       </c>
       <c r="R10">
         <v>30</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="1">
         <f>R10/B10</f>
         <v>10.616086910364839</v>
       </c>
-      <c r="U10" s="2"/>
-      <c r="W10" s="2">
+      <c r="U10" s="1"/>
+      <c r="W10" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1414,64 +1443,64 @@
       <c r="A11">
         <v>2020</v>
       </c>
-      <c r="B11" s="27">
-        <f>Sayfa1!D15/1000</f>
+      <c r="B11" s="26">
+        <f>Sayfa1!E15/1000</f>
         <v>2.3247100000000001</v>
       </c>
       <c r="C11">
         <v>44</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <f t="shared" si="0"/>
         <v>18.927091981365418</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f>30558/1000</f>
         <v>30.558</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>13.144865381058283</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>1.4398848092152627</v>
       </c>
       <c r="H11">
         <v>9.6999999999999993</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="1">
         <f>H11/B11</f>
         <v>4.172563459528285</v>
       </c>
       <c r="J11">
         <v>25</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11" s="1">
         <f>J11/B11</f>
         <v>10.754029534866714</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11" s="1">
         <f>L11/B11</f>
         <v>0</v>
       </c>
       <c r="N11">
         <v>36</v>
       </c>
-      <c r="O11" s="2">
+      <c r="O11" s="1">
         <f>N11/B11</f>
         <v>15.485802530208069</v>
       </c>
       <c r="P11">
         <v>35</v>
       </c>
-      <c r="Q11" s="2">
+      <c r="Q11" s="1">
         <f>P11/B11</f>
         <v>15.055641348813401</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="W11" s="2">
+      <c r="S11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="W11" s="1">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1480,40 +1509,40 @@
       <c r="A12">
         <v>2019</v>
       </c>
-      <c r="B12" s="27">
-        <f>Sayfa1!D16/1000</f>
+      <c r="B12" s="26">
+        <f>Sayfa1!E16/1000</f>
         <v>2.0209000000000001</v>
       </c>
       <c r="C12">
         <v>39</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <f t="shared" si="0"/>
         <v>19.298332426146764</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f>26400/1000</f>
         <v>26.4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>13.063486565391656</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f t="shared" si="2"/>
         <v>1.4772727272727273</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="U12" s="2"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="U12" s="1"/>
       <c r="V12">
         <v>30.65</v>
       </c>
-      <c r="W12" s="2">
+      <c r="W12" s="1">
         <f t="shared" si="3"/>
         <v>15.166509970805086</v>
       </c>
@@ -1522,40 +1551,40 @@
       <c r="A13">
         <v>2018</v>
       </c>
-      <c r="B13" s="27">
-        <f>Sayfa1!D17/1000</f>
+      <c r="B13" s="26">
+        <f>Sayfa1!E17/1000</f>
         <v>1.6031199999999999</v>
       </c>
       <c r="C13">
         <v>32.5</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <f t="shared" si="0"/>
         <v>20.27296771295973</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f>19686/1000</f>
         <v>19.686</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>12.279804381456161</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>1.6509194351315657</v>
       </c>
-      <c r="I13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="I13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="U13" s="1"/>
       <c r="V13">
         <v>25</v>
       </c>
-      <c r="W13" s="2">
+      <c r="W13" s="1">
         <f t="shared" si="3"/>
         <v>15.594590548430562</v>
       </c>
@@ -1564,36 +1593,36 @@
       <c r="A14">
         <v>2017</v>
       </c>
-      <c r="B14" s="27">
-        <f>Sayfa1!D18/1000</f>
+      <c r="B14" s="26">
+        <f>Sayfa1!E18/1000</f>
         <v>1.4040599999999999</v>
       </c>
       <c r="C14">
         <v>27.5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <f t="shared" si="0"/>
         <v>19.586057575887072</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f>17050/1000</f>
         <v>17.05</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>12.143355697049985</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>1.6129032258064515</v>
       </c>
-      <c r="K14" s="28" t="s">
+      <c r="K14" s="27" t="s">
         <v>25</v>
       </c>
       <c r="P14" t="s">
         <v>26</v>
       </c>
-      <c r="Q14" s="4">
+      <c r="Q14" s="3">
         <f>L6+N6+P6+R6+T6+V6</f>
         <v>1292</v>
       </c>
@@ -1602,36 +1631,36 @@
       <c r="A15">
         <v>2016</v>
       </c>
-      <c r="B15" s="27">
-        <f>Sayfa1!D19/1000</f>
+      <c r="B15" s="26">
+        <f>Sayfa1!E19/1000</f>
         <v>1.3009900000000001</v>
       </c>
       <c r="C15">
         <v>25</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <f t="shared" si="0"/>
         <v>19.216135404576512</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f>15125/1000</f>
         <v>15.125</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>11.62576191976879</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <f t="shared" si="2"/>
         <v>1.6528925619834711</v>
       </c>
-      <c r="I15" s="4" t="s">
+      <c r="I15" s="3" t="s">
         <v>27</v>
       </c>
       <c r="J15">
         <v>1768.44</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <f>J15/2</f>
         <v>884.22</v>
       </c>
@@ -1642,7 +1671,7 @@
       <c r="P15" t="s">
         <v>27</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="Q15" s="28">
         <f>C6</f>
         <v>340</v>
       </c>
@@ -1654,30 +1683,30 @@
       <c r="C16">
         <v>22.25</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f>13750/1000</f>
         <v>13.75</v>
       </c>
-      <c r="I16" s="4" t="s">
+      <c r="I16" s="3" t="s">
         <v>28</v>
       </c>
       <c r="J16">
         <v>501</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <f>J16</f>
         <v>501</v>
       </c>
       <c r="L16">
         <v>410</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>29</v>
       </c>
       <c r="P16" t="s">
         <v>28</v>
       </c>
-      <c r="Q16" s="29">
+      <c r="Q16" s="28">
         <f>+E6</f>
         <v>408</v>
       </c>
@@ -1689,25 +1718,25 @@
       <c r="C17">
         <v>20.5</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>12.5</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <f>J15/J16</f>
         <v>3.5298203592814374</v>
       </c>
-      <c r="K17" s="2">
+      <c r="K17" s="1">
         <f>K15/K16</f>
         <v>1.7649101796407187</v>
       </c>
-      <c r="L17" s="3">
+      <c r="L17" s="2">
         <f>L15/L16</f>
         <v>2.1566341463414633</v>
       </c>
       <c r="P17" t="s">
         <v>30</v>
       </c>
-      <c r="Q17" s="17">
+      <c r="Q17" s="16">
         <f>+H6+J6</f>
         <v>289</v>
       </c>
@@ -1719,7 +1748,7 @@
       <c r="C18">
         <v>18.7</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>9</v>
       </c>
     </row>
@@ -1730,10 +1759,10 @@
       <c r="C19">
         <v>17</v>
       </c>
-      <c r="E19" s="3">
+      <c r="E19" s="2">
         <v>10</v>
       </c>
-      <c r="Q19" s="4">
+      <c r="Q19" s="3">
         <f>SUM(Q14:Q18)</f>
         <v>2329</v>
       </c>
@@ -1745,7 +1774,7 @@
       <c r="C20">
         <v>14.8</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>9.5</v>
       </c>
     </row>
@@ -1761,533 +1790,733 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A4:AMJ92"/>
+  <dimension ref="A4:AMK92"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.42578125" style="30"/>
-    <col min="2" max="3" width="35.28515625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" style="31" customWidth="1"/>
-    <col min="5" max="5" width="21" style="31" customWidth="1"/>
-    <col min="6" max="6" width="13.85546875" style="31" customWidth="1"/>
-    <col min="7" max="1024" width="8.42578125" style="30"/>
+    <col min="1" max="1" width="8.42578125" style="29"/>
+    <col min="2" max="4" width="35.28515625" style="29" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="30" customWidth="1"/>
+    <col min="6" max="6" width="21" style="30" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" style="30" customWidth="1"/>
+    <col min="8" max="8" width="8.42578125" style="29"/>
+    <col min="9" max="9" width="15.42578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" style="29"/>
+    <col min="13" max="13" width="12.28515625" style="29" customWidth="1"/>
+    <col min="14" max="1025" width="8.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="32"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="32"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-    </row>
-    <row r="6" spans="2:6" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="32" t="s">
+    <row r="4" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="31"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="32"/>
+      <c r="E4" s="29">
+        <f>E9/E16</f>
+        <v>8.4130832797268535</v>
+      </c>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="J4" s="29">
+        <f>J9/J16</f>
+        <v>6.014383130568338</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B5" s="31"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+    </row>
+    <row r="6" spans="2:13" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="34" t="s">
+      <c r="D6" s="32"/>
+      <c r="E6" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="34" t="s">
+      <c r="F6" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="G6" s="33" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="32" t="s">
+      <c r="J6" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="M6" s="29" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B7" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="34" t="s">
+      <c r="C7" s="45"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="G7" s="33" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="32"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="32">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B8" s="31"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="M8" s="29">
+        <f>M9+(M9*D9)</f>
+        <v>12707.133110481325</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B9" s="31">
         <v>2024</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34">
-        <v>18000</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="35" t="s">
+      <c r="C9" s="32">
+        <v>2024</v>
+      </c>
+      <c r="D9" s="49">
+        <v>0.49109999999999998</v>
+      </c>
+      <c r="E9" s="33">
+        <v>17002</v>
+      </c>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="I9" s="29">
+        <v>0</v>
+      </c>
+      <c r="J9" s="29">
+        <v>10416.25</v>
+      </c>
+      <c r="K9" s="50">
+        <f>I9-D9</f>
+        <v>-0.49109999999999998</v>
+      </c>
+      <c r="M9" s="29">
+        <f>M10+(M10*D10)</f>
+        <v>8521.9858564022034</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B10" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="35" t="s">
+      <c r="C10" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="49">
+        <f>1-(E10/E9)</f>
+        <v>0.32935419362427953</v>
+      </c>
+      <c r="E10" s="35">
         <v>11402.32</v>
       </c>
-      <c r="E10" s="36">
+      <c r="F10" s="35">
         <v>13414.5</v>
       </c>
-      <c r="F10" s="36">
+      <c r="G10" s="35">
         <v>15762.04</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="35" t="s">
+      <c r="I10" s="49">
+        <f>(J9/J10)-1</f>
+        <v>0.38883333333333336</v>
+      </c>
+      <c r="J10" s="30">
+        <f>Sayfa3!C15</f>
+        <v>7500</v>
+      </c>
+      <c r="K10" s="50">
+        <f>I10-D10</f>
+        <v>5.947913970905383E-2</v>
+      </c>
+      <c r="M10" s="29">
+        <f>M11+(M11*D11)</f>
+        <v>6410.6209596167309</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B11" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="35" t="s">
+      <c r="C11" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="49">
+        <f>1-(E11/E10)</f>
+        <v>0.25394130317338937</v>
+      </c>
+      <c r="E11" s="35">
         <v>8506.7999999999993</v>
       </c>
-      <c r="E11" s="36">
+      <c r="F11" s="35">
         <v>10008</v>
       </c>
-      <c r="F11" s="36">
+      <c r="G11" s="35">
         <v>11759.4</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="35" t="s">
+      <c r="I11" s="49">
+        <f>(J10/J11)-1</f>
+        <v>0.35154616881712686</v>
+      </c>
+      <c r="J11" s="30">
+        <f>Sayfa3!C22</f>
+        <v>5549.2</v>
+      </c>
+      <c r="K11" s="50">
+        <f>I11-D11</f>
+        <v>9.7604865643737493E-2</v>
+      </c>
+      <c r="M11" s="29">
+        <f>M12+(M12*D12)</f>
+        <v>5112.3772248295572</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B12" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="C12" s="35" t="s">
+      <c r="C12" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="49">
+        <f>1-(E12/E11)</f>
+        <v>0.35341726618705027</v>
+      </c>
+      <c r="E12" s="35">
         <v>5500.35</v>
       </c>
-      <c r="E12" s="36">
+      <c r="F12" s="35">
         <v>6471</v>
       </c>
-      <c r="F12" s="36">
+      <c r="G12" s="35">
         <v>7603.43</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="35" t="s">
+      <c r="I12" s="49">
+        <f>(J11/J12)-1</f>
+        <v>0.29066170484940113</v>
+      </c>
+      <c r="J12" s="30">
+        <f>Sayfa3!C25</f>
+        <v>4299.5</v>
+      </c>
+      <c r="K12" s="50">
+        <f>I12-D12</f>
+        <v>-6.2755561337649146E-2</v>
+      </c>
+      <c r="M12" s="29">
+        <f>M13+(M13*D13)</f>
+        <v>3777.3843681132676</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="49">
+        <f>1-(E13/E12)</f>
+        <v>0.22670375521557729</v>
+      </c>
+      <c r="E13" s="35">
         <v>4253.3999999999996</v>
       </c>
-      <c r="E13" s="36">
+      <c r="F13" s="35">
         <v>5004</v>
       </c>
-      <c r="F13" s="36">
+      <c r="G13" s="35">
         <v>5879.7</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="35" t="s">
+      <c r="I13" s="49">
+        <f>(J12/J13)-1</f>
+        <v>0.42350109423679894</v>
+      </c>
+      <c r="J13" s="30">
+        <f>Sayfa3!C29</f>
+        <v>3020.37</v>
+      </c>
+      <c r="K13" s="50">
+        <f>I13-D13</f>
+        <v>0.19679733902122165</v>
+      </c>
+      <c r="M13" s="29">
+        <f>M14+(M14*D14)</f>
+        <v>3079.2963272941488</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="35" t="s">
+      <c r="C14" s="34" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="49">
+        <f>1-(E14/E13)</f>
+        <v>0.33561386185169506</v>
+      </c>
+      <c r="E14" s="35">
         <v>2825.9</v>
       </c>
-      <c r="E14" s="36">
+      <c r="F14" s="35">
         <v>3577.5</v>
       </c>
-      <c r="F14" s="36">
+      <c r="G14" s="35">
         <v>4203.5600000000004</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="35" t="s">
+      <c r="I14" s="49">
+        <f>(J13/J14)-1</f>
+        <v>0.25469726866756659</v>
+      </c>
+      <c r="J14" s="30">
+        <f>Sayfa3!C31</f>
+        <v>2407.25</v>
+      </c>
+      <c r="K14" s="50">
+        <f>I14-D14</f>
+        <v>-8.0916593184128471E-2</v>
+      </c>
+      <c r="M14" s="29">
+        <f>M15+(M15*D15)</f>
+        <v>2305.5288772048325</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="35" t="s">
+      <c r="C15" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="49">
+        <f>1-(E15/E14)</f>
+        <v>0.17735588662019186</v>
+      </c>
+      <c r="E15" s="35">
         <v>2324.71</v>
       </c>
-      <c r="E15" s="36">
+      <c r="F15" s="35">
         <v>2943</v>
       </c>
-      <c r="F15" s="36">
+      <c r="G15" s="35">
         <v>3458.03</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="35" t="s">
+      <c r="I15" s="49">
+        <f>(J14/J15)-1</f>
+        <v>0.24284932468712572</v>
+      </c>
+      <c r="J15" s="30">
+        <f>Sayfa3!C41</f>
+        <v>1936.88</v>
+      </c>
+      <c r="K15" s="50">
+        <f>I15-D15</f>
+        <v>6.5493438066933862E-2</v>
+      </c>
+      <c r="M15" s="29">
+        <f>J16+(J16*D16)</f>
+        <v>1958.2259734762617</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="34" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="35" t="s">
+      <c r="C16" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="49">
+        <f>1-(E16/E15)</f>
+        <v>0.13068726851951429</v>
+      </c>
+      <c r="E16" s="35">
         <v>2020.9</v>
       </c>
-      <c r="E16" s="36">
+      <c r="F16" s="35">
         <v>2558.4</v>
       </c>
-      <c r="F16" s="36">
+      <c r="G16" s="35">
         <v>3006.12</v>
       </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="35" t="s">
+      <c r="I16" s="49">
+        <f>(J15/J16)-1</f>
+        <v>0.11836202068260682</v>
+      </c>
+      <c r="J16" s="30">
+        <f>Sayfa3!C48</f>
+        <v>1731.89</v>
+      </c>
+      <c r="K16" s="50">
+        <f>I16-D16</f>
+        <v>-1.2325247836907471E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B17" s="34" t="s">
         <v>53</v>
       </c>
-      <c r="C17" s="35" t="s">
+      <c r="C17" s="34" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="49">
+        <f>1-(E17/E16)</f>
+        <v>0.20672967489732308</v>
+      </c>
+      <c r="E17" s="35">
         <v>1603.12</v>
       </c>
-      <c r="E17" s="36">
+      <c r="F17" s="35">
         <v>2029.5</v>
       </c>
-      <c r="F17" s="36">
+      <c r="G17" s="35">
         <v>2384.66</v>
       </c>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="35" t="s">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B18" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="35" t="s">
+      <c r="C18" s="34" t="s">
         <v>56</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="49">
+        <f>1-(E18/E17)</f>
+        <v>0.12417036778282342</v>
+      </c>
+      <c r="E18" s="35">
         <v>1404.06</v>
       </c>
-      <c r="E18" s="36">
+      <c r="F18" s="35">
         <v>1777.5</v>
       </c>
-      <c r="F18" s="36">
+      <c r="G18" s="35">
         <v>2088.56</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="35" t="s">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B19" s="34" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="C19" s="34" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="49">
+        <f>1-(E19/E18)</f>
+        <v>7.3408543794424741E-2</v>
+      </c>
+      <c r="E19" s="35">
         <v>1300.99</v>
       </c>
-      <c r="E19" s="36">
+      <c r="F19" s="35">
         <v>1647</v>
       </c>
-      <c r="F19" s="36">
+      <c r="G19" s="35">
         <v>1935.23</v>
       </c>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C20" s="30" t="s">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C20" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="31">
+      <c r="F20" s="30">
         <v>1273.5</v>
       </c>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C21" s="30" t="s">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C21" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="E21" s="31">
+      <c r="F21" s="30">
         <v>1201.5</v>
       </c>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C22" s="30" t="s">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C22" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="31">
+      <c r="F22" s="30">
         <v>1134</v>
       </c>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C23" s="30" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C23" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="51"/>
+      <c r="F23" s="30">
         <v>1071</v>
       </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C24" s="30" t="s">
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C24" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="E24" s="31">
+      <c r="F24" s="30">
         <v>1021.5</v>
       </c>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C25" s="30" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C25" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="E25" s="31">
+      <c r="F25" s="30">
         <v>978.6</v>
       </c>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C26" s="30" t="s">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C26" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="E26" s="31">
+      <c r="F26" s="30">
         <v>940.5</v>
       </c>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C27" s="30" t="s">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C27" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="E27" s="31">
+      <c r="F27" s="30">
         <v>886.5</v>
       </c>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C28" s="30" t="s">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C28" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="E28" s="31">
+      <c r="F28" s="30">
         <v>837</v>
       </c>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C29" s="30" t="s">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C29" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="31">
+      <c r="F29" s="30">
         <v>796.5</v>
       </c>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C30" s="30" t="s">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C30" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="E30" s="31">
+      <c r="F30" s="30">
         <v>760.5</v>
       </c>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C31" s="30" t="s">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C31" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="E31" s="31">
+      <c r="F31" s="30">
         <v>729</v>
       </c>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="C32" s="30" t="s">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="C32" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="E32" s="31">
+      <c r="F32" s="30">
         <v>693</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C33" s="30" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C33" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="E33" s="31">
+      <c r="F33" s="30">
         <v>666</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C34" s="30" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C34" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="E34" s="31">
+      <c r="F34" s="30">
         <v>638.70000000000005</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C35" s="30" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C35" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="E35" s="31">
+      <c r="F35" s="30">
         <v>608.4</v>
       </c>
     </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C36" s="30" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C36" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="E36" s="31">
+      <c r="F36" s="30">
         <v>585</v>
       </c>
     </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C37" s="30" t="s">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C37" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="E37" s="31">
+      <c r="F37" s="30">
         <v>562.5</v>
       </c>
     </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C38" s="30" t="s">
+    <row r="38" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C38" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="31">
+      <c r="F38" s="30">
         <v>531</v>
       </c>
     </row>
-    <row r="39" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C39" s="30" t="s">
+    <row r="39" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C39" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E39" s="31">
+      <c r="F39" s="30">
         <v>488.7</v>
       </c>
     </row>
-    <row r="40" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C40" s="30" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C40" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E40" s="31">
+      <c r="F40" s="30">
         <v>444150000</v>
       </c>
     </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C41" s="30" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C41" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E41" s="31">
+      <c r="F41" s="30">
         <v>423000000</v>
       </c>
     </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C42" s="30" t="s">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C42" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E42" s="31">
+      <c r="F42" s="30">
         <v>306000000</v>
       </c>
     </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C43" s="30" t="s">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C43" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E43" s="31">
+      <c r="F43" s="30">
         <v>250875000</v>
       </c>
     </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C44" s="30" t="s">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C44" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="E44" s="31">
+      <c r="F44" s="30">
         <v>222000750</v>
       </c>
     </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C45" s="30" t="s">
+    <row r="45" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C45" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="E45" s="31">
+      <c r="F45" s="30">
         <v>167940000</v>
       </c>
     </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C46" s="30" t="s">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C46" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="31">
+      <c r="F46" s="30">
         <v>146947500</v>
       </c>
     </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C47" s="30" t="s">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C47" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="E47" s="31">
+      <c r="F47" s="30">
         <v>139950000</v>
       </c>
     </row>
-    <row r="48" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C48" s="30" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C48" s="29" t="s">
         <v>87</v>
       </c>
-      <c r="E48" s="31">
+      <c r="F48" s="30">
         <v>118800000</v>
       </c>
     </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="C49" s="30" t="s">
+    <row r="49" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C49" s="29" t="s">
         <v>88</v>
       </c>
-      <c r="E49" s="31">
+      <c r="F49" s="30">
         <v>109800000</v>
       </c>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B78" s="30" t="s">
+      <c r="B78" s="29" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B80" s="30" t="s">
+      <c r="B80" s="29" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B82" s="30" t="s">
+      <c r="B82" s="29" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B84" s="30" t="s">
+      <c r="B84" s="29" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B86" s="30" t="s">
+      <c r="B86" s="29" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B88" s="30" t="s">
+      <c r="B88" s="29" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="29" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B92" s="30" t="s">
+      <c r="B92" s="29" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2302,6 +2531,440 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55674B5C-092E-4551-A6D5-E30F85EC47BA}">
+  <dimension ref="B1:D49"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="26" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="48" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B1" s="46"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="47"/>
+    </row>
+    <row r="2" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B2" s="46"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="47"/>
+    </row>
+    <row r="3" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B3" s="46"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="47"/>
+    </row>
+    <row r="4" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B4" s="46"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="47"/>
+    </row>
+    <row r="5" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B5" s="46"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="47"/>
+    </row>
+    <row r="6" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B6" s="46"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B7" s="46"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="47"/>
+    </row>
+    <row r="8" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B8" s="46"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="47"/>
+    </row>
+    <row r="9" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B9" s="46"/>
+      <c r="C9" s="30"/>
+      <c r="D9" s="47"/>
+    </row>
+    <row r="10" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B10" s="46"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="47"/>
+    </row>
+    <row r="11" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B11" s="46">
+        <v>45318</v>
+      </c>
+      <c r="C11" s="30">
+        <v>10000</v>
+      </c>
+      <c r="D11" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B12" s="46"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="47"/>
+    </row>
+    <row r="13" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B13" s="46">
+        <v>45287</v>
+      </c>
+      <c r="C13" s="30">
+        <v>7432.53</v>
+      </c>
+      <c r="D13" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B14" s="46">
+        <v>45244</v>
+      </c>
+      <c r="C14" s="30">
+        <v>5000</v>
+      </c>
+      <c r="D14" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B15" s="46">
+        <v>45134</v>
+      </c>
+      <c r="C15" s="30">
+        <v>7500</v>
+      </c>
+      <c r="D15" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B16" s="46"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="47"/>
+    </row>
+    <row r="17" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B17" s="46">
+        <v>45099</v>
+      </c>
+      <c r="C17" s="30">
+        <v>2000</v>
+      </c>
+      <c r="D17" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B18" s="46">
+        <v>45034</v>
+      </c>
+      <c r="C18" s="30">
+        <v>7500</v>
+      </c>
+      <c r="D18" s="47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B19" s="46">
+        <v>45034</v>
+      </c>
+      <c r="C19" s="30">
+        <v>2000</v>
+      </c>
+      <c r="D19" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B20" s="46">
+        <v>45012</v>
+      </c>
+      <c r="C20" s="30">
+        <v>5589.34</v>
+      </c>
+      <c r="D20" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B21" s="46">
+        <v>44974</v>
+      </c>
+      <c r="C21" s="30">
+        <v>5570.01</v>
+      </c>
+      <c r="D21" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B22" s="46">
+        <v>44953</v>
+      </c>
+      <c r="C22" s="30">
+        <v>5549.2</v>
+      </c>
+      <c r="D22" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B23" s="46"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="47"/>
+    </row>
+    <row r="24" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B24" s="46">
+        <v>44861</v>
+      </c>
+      <c r="C24" s="30">
+        <v>4293.6499999999996</v>
+      </c>
+      <c r="D24" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B25" s="46">
+        <v>44769</v>
+      </c>
+      <c r="C25" s="30">
+        <v>4299.5</v>
+      </c>
+      <c r="D25" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B26" s="46">
+        <v>44749</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1100</v>
+      </c>
+      <c r="D26" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B27" s="46"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="47"/>
+    </row>
+    <row r="28" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B28" s="46">
+        <v>44680</v>
+      </c>
+      <c r="C28" s="30">
+        <v>1100</v>
+      </c>
+      <c r="D28" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B29" s="46">
+        <v>44588</v>
+      </c>
+      <c r="C29" s="30">
+        <v>3020.37</v>
+      </c>
+      <c r="D29" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B30" s="46"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="47"/>
+    </row>
+    <row r="31" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B31" s="46">
+        <v>44557</v>
+      </c>
+      <c r="C31" s="30">
+        <v>2407.25</v>
+      </c>
+      <c r="D31" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B32" s="46"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="47"/>
+    </row>
+    <row r="33" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B33" s="46"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="47"/>
+    </row>
+    <row r="34" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B34" s="46"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="47"/>
+    </row>
+    <row r="35" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B35" s="46">
+        <v>44039</v>
+      </c>
+      <c r="C35" s="30">
+        <v>2048.25</v>
+      </c>
+      <c r="D35" s="47">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B36" s="46">
+        <v>44039</v>
+      </c>
+      <c r="C36" s="30">
+        <v>1000</v>
+      </c>
+      <c r="D36" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B37" s="46"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="47"/>
+    </row>
+    <row r="38" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B38" s="46">
+        <v>44008</v>
+      </c>
+      <c r="C38" s="30">
+        <v>1907.58</v>
+      </c>
+      <c r="D38" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B39" s="46">
+        <v>43972</v>
+      </c>
+      <c r="C39" s="30">
+        <v>1909.32</v>
+      </c>
+      <c r="D39" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B40" s="46">
+        <v>43932</v>
+      </c>
+      <c r="C40" s="30">
+        <v>1000</v>
+      </c>
+      <c r="D40" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B41" s="46">
+        <v>43857</v>
+      </c>
+      <c r="C41" s="30">
+        <v>1936.88</v>
+      </c>
+      <c r="D41" s="47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B42" s="46"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="47"/>
+    </row>
+    <row r="43" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B43" s="46">
+        <v>43704</v>
+      </c>
+      <c r="C43" s="30">
+        <v>1790.78</v>
+      </c>
+      <c r="D43" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B44" s="46">
+        <v>43686</v>
+      </c>
+      <c r="C44" s="30">
+        <v>1000</v>
+      </c>
+      <c r="D44" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B45" s="46">
+        <v>43672</v>
+      </c>
+      <c r="C45" s="30">
+        <v>1818.66</v>
+      </c>
+      <c r="D45" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B46" s="46"/>
+      <c r="C46" s="30"/>
+      <c r="D46" s="47"/>
+    </row>
+    <row r="47" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B47" s="46">
+        <v>43616</v>
+      </c>
+      <c r="C47" s="30">
+        <v>1000</v>
+      </c>
+      <c r="D47" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B48" s="46">
+        <v>43558</v>
+      </c>
+      <c r="C48" s="30">
+        <v>1731.89</v>
+      </c>
+      <c r="D48" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="B49" s="46">
+        <v>43521</v>
+      </c>
+      <c r="C49" s="30">
+        <v>3094.29</v>
+      </c>
+      <c r="D49" s="47">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="C1:J18"/>
   <sheetViews>
@@ -2315,7 +2978,7 @@
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="9.140625" customWidth="1"/>
     <col min="5" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" style="37" customWidth="1"/>
+    <col min="7" max="7" width="5.85546875" style="36" customWidth="1"/>
     <col min="8" max="8" width="8.140625" customWidth="1"/>
     <col min="9" max="9" width="9.5703125" customWidth="1"/>
     <col min="10" max="10" width="4.5703125" customWidth="1"/>
@@ -2345,13 +3008,13 @@
       <c r="C2" t="s">
         <v>97</v>
       </c>
-      <c r="D2" s="27">
+      <c r="D2" s="26">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
       <c r="H3" t="s">
         <v>98</v>
       </c>
@@ -2363,11 +3026,11 @@
       <c r="D4" t="s">
         <v>100</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="37" t="s">
+      <c r="F4" s="26"/>
+      <c r="G4" s="36" t="s">
         <v>23</v>
       </c>
       <c r="H4" t="s">
@@ -2375,269 +3038,269 @@
       </c>
     </row>
     <row r="5" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="38">
+      <c r="D5" s="37">
         <v>12</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" ref="E5:E16" si="0">$D$2*D5</f>
         <v>216</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="37">
+      <c r="F5" s="2"/>
+      <c r="G5" s="36">
         <v>0.25</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="2">
         <f t="shared" ref="H5:H16" si="1">E5*G5</f>
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D6" s="38">
+      <c r="D6" s="37">
         <v>8</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="37">
+      <c r="F6" s="2"/>
+      <c r="G6" s="36">
         <v>0.25</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="2">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="7" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="39">
+      <c r="D7" s="38">
         <v>14</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>252</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="37">
+      <c r="F7" s="2"/>
+      <c r="G7" s="36">
         <v>0.10630000000000001</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="2">
         <f t="shared" si="1"/>
         <v>26.787600000000001</v>
       </c>
     </row>
     <row r="8" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="39">
         <v>5</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="37">
+      <c r="F8" s="2"/>
+      <c r="G8" s="36">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="2">
         <f t="shared" si="1"/>
         <v>90</v>
       </c>
     </row>
     <row r="9" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="37">
+      <c r="F9" s="2"/>
+      <c r="G9" s="36">
         <v>1</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="2">
         <f t="shared" si="1"/>
         <v>198</v>
       </c>
     </row>
     <row r="10" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="42">
+      <c r="D10" s="41">
         <v>8</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="37">
+      <c r="F10" s="2"/>
+      <c r="G10" s="36">
         <v>0.76461599999999996</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="2">
         <f t="shared" si="1"/>
         <v>110.104704</v>
       </c>
     </row>
     <row r="11" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C11" s="13" t="s">
+      <c r="C11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="43">
+      <c r="D11" s="42">
         <v>16</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>288</v>
       </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="37">
+      <c r="F11" s="2"/>
+      <c r="G11" s="36">
         <f>G10</f>
         <v>0.76461599999999996</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="2">
         <f t="shared" si="1"/>
         <v>220.209408</v>
       </c>
     </row>
     <row r="12" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="44">
+      <c r="D12" s="43">
         <v>10</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="37">
+      <c r="F12" s="2"/>
+      <c r="G12" s="36">
         <f>G10</f>
         <v>0.76461599999999996</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="2">
         <f t="shared" si="1"/>
         <v>137.63087999999999</v>
       </c>
     </row>
     <row r="13" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="43">
         <v>10</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="37">
+      <c r="F13" s="2"/>
+      <c r="G13" s="36">
         <f>G11</f>
         <v>0.76461599999999996</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="2">
         <f t="shared" si="1"/>
         <v>137.63087999999999</v>
       </c>
     </row>
     <row r="14" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="45">
+      <c r="D14" s="44">
         <v>10</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="37">
+      <c r="F14" s="2"/>
+      <c r="G14" s="36">
         <f>G13</f>
         <v>0.76461599999999996</v>
       </c>
-      <c r="H14" s="3">
+      <c r="H14" s="2">
         <f t="shared" si="1"/>
         <v>137.63087999999999</v>
       </c>
     </row>
     <row r="15" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C15" s="16" t="s">
+      <c r="C15" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D15" s="45">
+      <c r="D15" s="44">
         <f>D14</f>
         <v>10</v>
       </c>
-      <c r="E15" s="3">
+      <c r="E15" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="37">
+      <c r="F15" s="2"/>
+      <c r="G15" s="36">
         <f>G14</f>
         <v>0.76461599999999996</v>
       </c>
-      <c r="H15" s="3">
+      <c r="H15" s="2">
         <f t="shared" si="1"/>
         <v>137.63087999999999</v>
       </c>
     </row>
     <row r="16" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="45">
+      <c r="D16" s="44">
         <f>D14</f>
         <v>10</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="37">
+      <c r="F16" s="2"/>
+      <c r="G16" s="36">
         <f>G15</f>
         <v>0.76461599999999996</v>
       </c>
-      <c r="H16" s="3">
+      <c r="H16" s="2">
         <f t="shared" si="1"/>
         <v>137.63087999999999</v>
       </c>
     </row>
     <row r="17" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
     </row>
     <row r="18" spans="4:10" x14ac:dyDescent="0.25">
-      <c r="D18" s="3">
+      <c r="D18" s="2">
         <f>E16+E15+E14+E13+E11+E10+E9+E8+E7+E5</f>
         <v>1908</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="37">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="36">
         <f>H18/D18</f>
         <v>0.74594135849056586</v>
       </c>
-      <c r="H18" s="3">
+      <c r="H18" s="2">
         <f>SUM(H5:H16)</f>
         <v>1423.2561119999996</v>
       </c>
